--- a/config_6.1/rank_server.xlsx
+++ b/config_6.1/rank_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="642">
   <si>
     <t>id|</t>
   </si>
@@ -2607,10 +2607,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2658,8 +2658,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2673,63 +2688,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2749,17 +2709,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2781,8 +2740,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2795,24 +2799,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2869,7 +2869,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2881,7 +2995,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2893,43 +3019,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2941,109 +3037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3072,15 +3072,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3092,36 +3083,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3144,17 +3105,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3169,16 +3119,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3187,19 +3187,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3208,117 +3208,117 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3354,9 +3354,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3774,38 +3771,38 @@
   <sheetPr/>
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="36" style="32" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="22.75" style="32" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="32" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="32" customWidth="1"/>
-    <col min="8" max="8" width="21.375" style="32" customWidth="1"/>
-    <col min="9" max="9" width="31.125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="32" customWidth="1"/>
-    <col min="11" max="11" width="31.125" style="32" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="32" customWidth="1"/>
-    <col min="13" max="13" width="15.75" style="32" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="32" customWidth="1"/>
-    <col min="15" max="15" width="16.5" style="32" customWidth="1"/>
-    <col min="16" max="16" width="35" style="32" customWidth="1"/>
-    <col min="17" max="17" width="33.875" style="32" customWidth="1"/>
-    <col min="18" max="18" width="28.875" style="32" customWidth="1"/>
-    <col min="19" max="19" width="19.375" style="32" customWidth="1"/>
-    <col min="20" max="16384" width="11" style="32"/>
+    <col min="1" max="1" width="13.125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="36" style="31" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="31" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="31" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="31.125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="31.125" style="31" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="31" customWidth="1"/>
+    <col min="13" max="13" width="15.75" style="31" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="31" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="31" customWidth="1"/>
+    <col min="16" max="16" width="35" style="31" customWidth="1"/>
+    <col min="17" max="17" width="33.875" style="31" customWidth="1"/>
+    <col min="18" max="18" width="28.875" style="31" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="31" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="31"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.1" customHeight="1" spans="1:21">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -3852,1850 +3849,1852 @@
       <c r="U1" s="5"/>
     </row>
     <row r="2" ht="43.5" customHeight="1" spans="1:18">
-      <c r="A2" s="30">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32" t="b">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="41">
         <v>1567467000</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="41">
         <v>1568649599</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="32">
-        <v>1</v>
-      </c>
-      <c r="K2" s="32">
-        <v>1</v>
-      </c>
-      <c r="L2" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="43"/>
+      <c r="I2" s="31">
+        <v>1</v>
+      </c>
+      <c r="K2" s="31">
+        <v>1</v>
+      </c>
+      <c r="L2" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="42"/>
     </row>
     <row r="3" ht="43.5" customHeight="1" spans="1:18">
-      <c r="A3" s="30">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="b">
+      <c r="B3" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <v>1572910200</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>1573487999</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="31">
         <v>3</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="31">
         <v>2</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="31">
         <v>2</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="31">
         <v>2</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="43"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" ht="43.5" customHeight="1" spans="1:18">
-      <c r="A4" s="30">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="b">
+      <c r="B4" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>1569886200</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>1570463999</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="31">
         <v>4</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="31">
         <v>3</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="31">
         <v>3</v>
       </c>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="43"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="42"/>
     </row>
     <row r="5" ht="43.5" customHeight="1" spans="1:18">
-      <c r="A5" s="30">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="b">
+      <c r="B5" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>1570491000</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>1571068799</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="31">
         <v>5</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="31">
         <v>4</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="31">
         <v>4</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="43"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="42"/>
     </row>
     <row r="6" ht="43.5" customHeight="1" spans="1:18">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="b">
+      <c r="B6" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>1571700600</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>1572278399</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <v>6</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="31">
         <v>5</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="31">
         <v>5</v>
       </c>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="43"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="b">
+      <c r="B7" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>1589239800</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>1589817599</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="31">
         <v>7</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="31">
         <v>6</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="30">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="32" t="b">
+      <c r="B8" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>1589239800</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>1589817599</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>8</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="31">
         <v>7</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="30">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="b">
+      <c r="B9" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>1589844600</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>1590422399</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="31">
         <v>9</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <v>8</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="30">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="b">
+      <c r="B10" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <v>1589844600</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>1590422399</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <v>10</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="31">
         <v>9</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="30">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="32" t="b">
+      <c r="B11" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <v>1591659000</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <v>1592236799</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="31">
         <v>11</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="31">
         <v>10</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="32" t="b">
+      <c r="B12" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>1591113600</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>2555555555</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="31">
         <v>12</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="31">
         <v>11</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="31">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="30">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="32" t="b">
+      <c r="B13" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>1597707000</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>1598284799</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="31">
         <v>13</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="31">
         <v>12</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="31">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="30">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="32" t="b">
+      <c r="B14" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>1597707000</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <v>1598284799</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="31">
         <v>14</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="31">
         <v>13</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="31">
         <v>11</v>
       </c>
     </row>
-    <row r="15" s="30" customFormat="1" spans="1:12">
-      <c r="A15" s="30">
+    <row r="15" s="29" customFormat="1" spans="1:12">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="30" t="b">
+      <c r="B15" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <v>1598311800</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <v>1598889599</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="29">
         <v>15</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="29">
         <v>14</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="29">
         <v>12</v>
       </c>
     </row>
-    <row r="16" s="30" customFormat="1" spans="1:12">
-      <c r="A16" s="30">
+    <row r="16" s="29" customFormat="1" spans="1:12">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
-      <c r="B16" s="30" t="b">
+      <c r="B16" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <v>1604246400</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="29">
         <v>2555555555</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="29">
         <v>16</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="29">
         <v>15</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="29">
         <v>13</v>
       </c>
     </row>
-    <row r="17" s="30" customFormat="1" spans="1:12">
-      <c r="A17" s="30">
+    <row r="17" s="29" customFormat="1" spans="1:12">
+      <c r="A17" s="29">
         <v>16</v>
       </c>
-      <c r="B17" s="30" t="b">
+      <c r="B17" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <v>1604332800</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <v>2555555555</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="29">
         <v>17</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="29">
         <v>16</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="29">
         <v>14</v>
       </c>
     </row>
-    <row r="18" s="30" customFormat="1" spans="1:12">
-      <c r="A18" s="30">
+    <row r="18" s="29" customFormat="1" spans="1:12">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
-      <c r="B18" s="30" t="b">
+      <c r="B18" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <v>1604332800</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="29">
         <v>2555555555</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="29">
         <v>18</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="29">
         <v>17</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="29">
         <v>15</v>
       </c>
     </row>
-    <row r="19" s="30" customFormat="1" spans="1:12">
-      <c r="A19" s="30">
+    <row r="19" s="29" customFormat="1" spans="1:12">
+      <c r="A19" s="29">
         <v>18</v>
       </c>
-      <c r="B19" s="30" t="b">
+      <c r="B19" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="29">
         <v>1604332800</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="29">
         <v>2555555555</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="29">
         <v>19</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="29">
         <v>18</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="29">
         <v>16</v>
       </c>
     </row>
-    <row r="20" s="30" customFormat="1" spans="1:12">
-      <c r="A20" s="30">
+    <row r="20" s="29" customFormat="1" spans="1:12">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
-      <c r="B20" s="30" t="b">
+      <c r="B20" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <v>1604332800</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="29">
         <v>2555555555</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="29">
         <v>20</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="29">
         <v>19</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="29">
         <v>17</v>
       </c>
     </row>
-    <row r="21" s="30" customFormat="1" spans="1:12">
-      <c r="A21" s="30">
+    <row r="21" s="29" customFormat="1" spans="1:12">
+      <c r="A21" s="29">
         <v>20</v>
       </c>
-      <c r="B21" s="30" t="b">
+      <c r="B21" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <v>1607385600</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <v>1607961599</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="29">
         <v>21</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="29">
         <v>20</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="29">
         <v>18</v>
       </c>
     </row>
-    <row r="22" s="30" customFormat="1" spans="1:12">
-      <c r="A22" s="30">
+    <row r="22" s="29" customFormat="1" spans="1:12">
+      <c r="A22" s="29">
         <v>21</v>
       </c>
-      <c r="B22" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="29">
         <v>1604246400</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="29">
         <v>2555555555</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="29">
         <v>21</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="29">
         <v>19</v>
       </c>
     </row>
-    <row r="23" s="30" customFormat="1" spans="1:12">
-      <c r="A23" s="30">
+    <row r="23" s="29" customFormat="1" spans="1:12">
+      <c r="A23" s="29">
         <v>22</v>
       </c>
-      <c r="B23" s="30" t="b">
+      <c r="B23" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="29">
         <v>1607990400</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="29">
         <v>1608566399</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="29">
         <v>22</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="29">
         <v>22</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="29">
         <v>20</v>
       </c>
     </row>
-    <row r="24" s="30" customFormat="1" spans="1:12">
-      <c r="A24" s="30">
+    <row r="24" s="29" customFormat="1" spans="1:12">
+      <c r="A24" s="29">
         <v>23</v>
       </c>
-      <c r="B24" s="30" t="b">
+      <c r="B24" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="30">
         <v>1608595200</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="30">
         <v>1609171199</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="29">
         <v>23</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="29">
         <v>23</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="29">
         <v>21</v>
       </c>
     </row>
-    <row r="25" s="30" customFormat="1" spans="1:12">
-      <c r="A25" s="30">
+    <row r="25" s="29" customFormat="1" spans="1:12">
+      <c r="A25" s="29">
         <v>24</v>
       </c>
-      <c r="B25" s="30" t="b">
+      <c r="B25" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="30">
         <v>1609200000</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="30">
         <v>1609775999</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="29">
         <v>24</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="29">
         <v>24</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="29">
         <v>22</v>
       </c>
     </row>
-    <row r="26" s="30" customFormat="1" spans="1:12">
-      <c r="A26" s="30">
+    <row r="26" s="29" customFormat="1" spans="1:12">
+      <c r="A26" s="29">
         <v>25</v>
       </c>
-      <c r="B26" s="30" t="b">
+      <c r="B26" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="30">
         <v>1609804800</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="30">
         <v>1610380799</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="29">
         <v>25</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="29">
         <v>25</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="29">
         <v>23</v>
       </c>
     </row>
-    <row r="27" s="30" customFormat="1" spans="1:12">
-      <c r="A27" s="30">
+    <row r="27" s="29" customFormat="1" spans="1:12">
+      <c r="A27" s="29">
         <v>26</v>
       </c>
-      <c r="B27" s="30" t="b">
+      <c r="B27" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <v>1610407800</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="29">
         <v>1610985599</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="29">
         <v>26</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="29">
         <v>26</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="29">
         <v>24</v>
       </c>
     </row>
-    <row r="28" s="30" customFormat="1" spans="1:12">
-      <c r="A28" s="30">
+    <row r="28" s="29" customFormat="1" spans="1:12">
+      <c r="A28" s="29">
         <v>27</v>
       </c>
-      <c r="B28" s="30" t="b">
+      <c r="B28" s="29" t="b">
         <v>0</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="29">
         <v>1610409600</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="29">
         <v>1611590399</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="29">
         <v>27</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="29">
         <v>27</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="29">
         <v>25</v>
       </c>
     </row>
-    <row r="29" s="30" customFormat="1" spans="1:12">
-      <c r="A29" s="30">
+    <row r="29" s="29" customFormat="1" spans="1:12">
+      <c r="A29" s="29">
         <v>28</v>
       </c>
-      <c r="B29" s="30" t="b">
+      <c r="B29" s="29" t="b">
         <v>0</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="29">
         <v>1611590400</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="29">
         <v>1612195199</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="29">
         <v>28</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="29">
         <v>28</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" s="30" customFormat="1" spans="1:12">
-      <c r="A30" s="30">
+    <row r="30" s="29" customFormat="1" spans="1:12">
+      <c r="A30" s="29">
         <v>29</v>
       </c>
-      <c r="B30" s="30" t="b">
+      <c r="B30" s="29" t="b">
         <v>0</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <v>1612224000</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="29">
         <v>1612799999</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="29">
         <v>29</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="29">
         <v>29</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="29">
         <v>27</v>
       </c>
     </row>
-    <row r="31" s="30" customFormat="1" ht="18" customHeight="1" spans="1:12">
-      <c r="A31" s="30">
+    <row r="31" s="29" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="A31" s="29">
         <v>30</v>
       </c>
-      <c r="B31" s="30" t="b">
+      <c r="B31" s="29" t="b">
         <v>0</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <v>1612828800</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="29">
         <v>1613404799</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="29">
         <v>30</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="29">
         <v>30</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L31" s="29">
         <v>28</v>
       </c>
     </row>
-    <row r="32" s="30" customFormat="1" spans="1:12">
-      <c r="A32" s="30">
+    <row r="32" s="29" customFormat="1" spans="1:12">
+      <c r="A32" s="29">
         <v>31</v>
       </c>
-      <c r="B32" s="30" t="b">
+      <c r="B32" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="29">
         <v>1612828800</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="29">
         <v>1613404799</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="29">
         <v>31</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="29">
         <v>31</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="29">
         <v>29</v>
       </c>
     </row>
-    <row r="33" s="30" customFormat="1" spans="1:12">
-      <c r="A33" s="30">
+    <row r="33" s="29" customFormat="1" spans="1:12">
+      <c r="A33" s="29">
         <v>32</v>
       </c>
-      <c r="B33" s="30" t="b">
+      <c r="B33" s="29" t="b">
         <v>0</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="29">
         <v>1613433600</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="29">
         <v>1614009599</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="29">
         <v>32</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="29">
         <v>32</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="29">
         <v>30</v>
       </c>
     </row>
-    <row r="34" s="30" customFormat="1" spans="1:12">
-      <c r="A34" s="30">
+    <row r="34" s="29" customFormat="1" spans="1:12">
+      <c r="A34" s="29">
         <v>33</v>
       </c>
-      <c r="B34" s="30" t="b">
+      <c r="B34" s="29" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="29">
         <v>1614038400</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="29">
         <v>1614614399</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="29">
         <v>33</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="29">
         <v>33</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="29">
         <v>31</v>
       </c>
     </row>
-    <row r="35" s="30" customFormat="1" spans="1:12">
-      <c r="A35" s="30">
+    <row r="35" s="29" customFormat="1" spans="1:12">
+      <c r="A35" s="29">
         <v>34</v>
       </c>
-      <c r="B35" s="30" t="b">
+      <c r="B35" s="29" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="29">
         <v>1614643200</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="29">
         <v>1615219199</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="H35" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="29">
         <v>34</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="29">
         <v>34</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="29">
         <v>32</v>
       </c>
     </row>
-    <row r="36" s="30" customFormat="1" ht="16.5" spans="1:12">
-      <c r="A36" s="30">
+    <row r="36" s="29" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A36" s="29">
         <v>35</v>
       </c>
-      <c r="B36" s="30" t="b">
+      <c r="B36" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="29">
         <v>1615248000</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="29">
         <v>1615823999</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="29">
         <v>35</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="29">
         <v>35</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="29">
         <v>33</v>
       </c>
     </row>
-    <row r="37" s="30" customFormat="1" spans="1:12">
-      <c r="A37" s="30">
+    <row r="37" s="29" customFormat="1" spans="1:12">
+      <c r="A37" s="29">
         <v>36</v>
       </c>
-      <c r="B37" s="30" t="b">
+      <c r="B37" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="29">
         <v>1615248000</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="29">
         <v>1615823999</v>
       </c>
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="29">
         <v>36</v>
       </c>
-      <c r="K37" s="30">
+      <c r="K37" s="29">
         <v>36</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L37" s="29">
         <v>34</v>
       </c>
     </row>
-    <row r="38" s="30" customFormat="1" ht="16.5" spans="1:12">
-      <c r="A38" s="30">
+    <row r="38" s="29" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A38" s="29">
         <v>37</v>
       </c>
-      <c r="B38" s="30" t="b">
+      <c r="B38" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="29">
         <v>1615852800</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="29">
         <v>1616428799</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="29">
         <v>37</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="29">
         <v>37</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L38" s="29">
         <v>35</v>
       </c>
     </row>
-    <row r="39" s="30" customFormat="1" spans="1:12">
-      <c r="A39" s="30">
+    <row r="39" s="29" customFormat="1" spans="1:12">
+      <c r="A39" s="29">
         <v>38</v>
       </c>
-      <c r="B39" s="30" t="b">
+      <c r="B39" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="29">
         <v>1615852800</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="29">
         <v>1616428799</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="30" t="s">
+      <c r="H39" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="29">
         <v>38</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="29">
         <v>38</v>
       </c>
-      <c r="L39" s="30">
+      <c r="L39" s="29">
         <v>36</v>
       </c>
     </row>
-    <row r="40" s="30" customFormat="1" ht="16.5" spans="1:12">
-      <c r="A40" s="30">
+    <row r="40" s="29" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A40" s="29">
         <v>39</v>
       </c>
-      <c r="B40" s="30" t="b">
+      <c r="B40" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="29">
         <v>1616457600</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="29">
         <v>1617033599</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="29">
         <v>39</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="29">
         <v>39</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="29">
         <v>37</v>
       </c>
     </row>
-    <row r="41" s="30" customFormat="1" spans="1:12">
-      <c r="A41" s="30">
+    <row r="41" s="29" customFormat="1" spans="1:12">
+      <c r="A41" s="29">
         <v>40</v>
       </c>
-      <c r="B41" s="30" t="b">
+      <c r="B41" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="29">
         <v>1616457600</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="29">
         <v>1617033599</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="29">
         <v>40</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="29">
         <v>40</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L41" s="29">
         <v>38</v>
       </c>
     </row>
-    <row r="42" s="30" customFormat="1" spans="1:12">
-      <c r="A42" s="30">
+    <row r="42" s="29" customFormat="1" spans="1:12">
+      <c r="A42" s="29">
         <v>41</v>
       </c>
-      <c r="B42" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C42" s="35" t="s">
+      <c r="B42" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="29">
         <v>1615132800</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="29">
         <v>2555555555</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="29">
         <v>41</v>
       </c>
-      <c r="L42" s="30">
+      <c r="L42" s="29">
         <v>39</v>
       </c>
     </row>
-    <row r="43" s="30" customFormat="1" spans="1:12">
-      <c r="A43" s="30">
+    <row r="43" s="29" customFormat="1" spans="1:12">
+      <c r="A43" s="29">
         <v>42</v>
       </c>
-      <c r="B43" s="30" t="b">
+      <c r="B43" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="29">
         <v>1617062400</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="29">
         <v>1617638399</v>
       </c>
-      <c r="G43" s="30" t="s">
+      <c r="G43" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="30" t="s">
+      <c r="H43" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="29">
         <v>41</v>
       </c>
-      <c r="K43" s="30">
+      <c r="K43" s="29">
         <v>42</v>
       </c>
-      <c r="L43" s="30">
+      <c r="L43" s="29">
         <v>40</v>
       </c>
     </row>
-    <row r="44" s="30" customFormat="1" spans="1:12">
-      <c r="A44" s="30">
+    <row r="44" s="29" customFormat="1" spans="1:12">
+      <c r="A44" s="29">
         <v>43</v>
       </c>
-      <c r="B44" s="30" t="b">
+      <c r="B44" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="29">
         <v>1617062400</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="29">
         <v>1617638399</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H44" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="30">
+      <c r="I44" s="29">
         <v>42</v>
       </c>
-      <c r="K44" s="30">
+      <c r="K44" s="29">
         <v>43</v>
       </c>
-      <c r="L44" s="30">
+      <c r="L44" s="29">
         <v>41</v>
       </c>
     </row>
-    <row r="45" s="30" customFormat="1" spans="1:12">
-      <c r="A45" s="30">
+    <row r="45" s="29" customFormat="1" spans="1:12">
+      <c r="A45" s="29">
         <v>44</v>
       </c>
-      <c r="B45" s="30" t="b">
+      <c r="B45" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="29">
         <v>1617667200</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="29">
         <v>1618243199</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G45" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="30">
+      <c r="K45" s="29">
         <v>44</v>
       </c>
-      <c r="L45" s="30">
+      <c r="L45" s="29">
         <v>42</v>
       </c>
     </row>
-    <row r="46" s="30" customFormat="1" spans="1:12">
-      <c r="A46" s="30">
+    <row r="46" s="29" customFormat="1" spans="1:12">
+      <c r="A46" s="29">
         <v>45</v>
       </c>
-      <c r="B46" s="30" t="b">
+      <c r="B46" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="29">
         <v>1617667200</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="29">
         <v>1618243199</v>
       </c>
-      <c r="G46" s="35" t="s">
+      <c r="G46" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="30" t="s">
+      <c r="H46" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="30">
+      <c r="I46" s="29">
         <v>43</v>
       </c>
-      <c r="K46" s="30">
+      <c r="K46" s="29">
         <v>45</v>
       </c>
-      <c r="L46" s="30">
+      <c r="L46" s="29">
         <v>43</v>
       </c>
     </row>
-    <row r="47" s="30" customFormat="1" spans="1:12">
-      <c r="A47" s="30">
+    <row r="47" s="29" customFormat="1" spans="1:12">
+      <c r="A47" s="29">
         <v>46</v>
       </c>
-      <c r="B47" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C47" s="35" t="s">
+      <c r="B47" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="29">
         <v>1604246400</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="29">
         <v>2555555555</v>
       </c>
-      <c r="G47" s="35" t="s">
+      <c r="G47" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="35" t="s">
+      <c r="H47" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="30">
+      <c r="I47" s="29">
         <v>44</v>
       </c>
-      <c r="K47" s="30">
+      <c r="K47" s="29">
         <v>46</v>
       </c>
-      <c r="L47" s="30">
+      <c r="L47" s="29">
         <v>44</v>
       </c>
     </row>
-    <row r="48" s="40" customFormat="1" spans="1:12">
-      <c r="A48" s="40">
+    <row r="48" s="39" customFormat="1" spans="1:12">
+      <c r="A48" s="39">
         <v>47</v>
       </c>
-      <c r="B48" s="40" t="b">
+      <c r="B48" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="40">
+      <c r="E48" s="39">
         <v>1618272000</v>
       </c>
-      <c r="F48" s="40">
+      <c r="F48" s="39">
         <v>1618847999</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="40" t="s">
+      <c r="H48" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="40">
+      <c r="I48" s="39">
         <v>45</v>
       </c>
-      <c r="K48" s="40">
+      <c r="K48" s="39">
         <v>47</v>
       </c>
-      <c r="L48" s="40">
+      <c r="L48" s="39">
         <v>45</v>
       </c>
     </row>
-    <row r="49" s="30" customFormat="1" spans="1:12">
-      <c r="A49" s="30">
+    <row r="49" s="29" customFormat="1" spans="1:12">
+      <c r="A49" s="29">
         <v>48</v>
       </c>
-      <c r="B49" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C49" s="35" t="s">
+      <c r="B49" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="29">
         <v>1618243200</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="29">
         <v>2555555555</v>
       </c>
-      <c r="G49" s="35" t="s">
+      <c r="G49" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I49" s="30">
+      <c r="I49" s="29">
         <v>46</v>
       </c>
-      <c r="K49" s="30">
+      <c r="K49" s="29">
         <v>48</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="29">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="30">
+      <c r="A50" s="29">
         <v>49</v>
       </c>
-      <c r="B50" s="30" t="b">
+      <c r="B50" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="31">
         <v>1619481600</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="31">
         <v>1620662399</v>
       </c>
-      <c r="G50" s="32" t="s">
+      <c r="G50" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="32" t="s">
+      <c r="H50" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="32">
+      <c r="I50" s="31">
         <v>47</v>
       </c>
-      <c r="K50" s="32">
+      <c r="K50" s="31">
         <v>49</v>
       </c>
-      <c r="L50" s="32">
+      <c r="L50" s="31">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="30">
+      <c r="A51" s="29">
         <v>50</v>
       </c>
-      <c r="B51" s="30" t="b">
+      <c r="B51" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="31">
         <v>1620662400</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="31">
         <v>1621267199</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="40" t="s">
+      <c r="H51" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="32">
+      <c r="I51" s="31">
         <v>48</v>
       </c>
-      <c r="K51" s="32">
+      <c r="K51" s="31">
         <v>50</v>
       </c>
-      <c r="L51" s="32">
+      <c r="L51" s="31">
         <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="30">
+      <c r="A52" s="29">
         <v>51</v>
       </c>
-      <c r="B52" s="30" t="b">
+      <c r="B52" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="31">
         <v>1621296000</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F52" s="31">
         <v>1621871999</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="G52" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="40" t="s">
+      <c r="H52" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="K52" s="32">
+      <c r="K52" s="31">
         <v>51</v>
       </c>
-      <c r="L52" s="32">
+      <c r="L52" s="31">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="30">
+      <c r="A53" s="29">
         <v>52</v>
       </c>
-      <c r="B53" s="30" t="b">
+      <c r="B53" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="30">
         <v>1621900800</v>
       </c>
-      <c r="F53" s="31">
+      <c r="F53" s="30">
         <v>1622476799</v>
       </c>
-      <c r="G53" s="40" t="s">
+      <c r="G53" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="32">
+      <c r="I53" s="31">
         <v>49</v>
       </c>
-      <c r="K53" s="32">
+      <c r="K53" s="31">
         <v>52</v>
       </c>
-      <c r="L53" s="32">
+      <c r="L53" s="31">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="30">
+      <c r="A54" s="29">
         <v>53</v>
       </c>
-      <c r="B54" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C54" s="32" t="s">
+      <c r="B54" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E54" s="31">
         <v>1622505600</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="31">
         <v>1623081599</v>
       </c>
-      <c r="G54" s="40" t="s">
+      <c r="G54" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="40" t="s">
+      <c r="H54" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="32"/>
-      <c r="K54" s="32">
+      <c r="I54" s="31">
+        <v>50</v>
+      </c>
+      <c r="K54" s="31">
         <v>53</v>
       </c>
-      <c r="L54" s="32">
+      <c r="L54" s="31">
         <v>51</v>
       </c>
     </row>
@@ -5712,9 +5711,9 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G135" sqref="G135"/>
+      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6271,7 +6270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" s="33" customFormat="1" spans="1:8">
+    <row r="41" s="32" customFormat="1" spans="1:8">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -6284,12 +6283,12 @@
       <c r="D41" s="7">
         <v>22</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-    </row>
-    <row r="42" s="33" customFormat="1" spans="1:8">
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="42" s="32" customFormat="1" spans="1:8">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -6302,10 +6301,10 @@
       <c r="D42" s="7">
         <v>22</v>
       </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4">
@@ -6774,7 +6773,7 @@
       <c r="B73" s="7">
         <v>36</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="35" t="s">
         <v>136</v>
       </c>
       <c r="D73" s="7">
@@ -6788,7 +6787,7 @@
       <c r="B74" s="7">
         <v>36</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="35" t="s">
         <v>137</v>
       </c>
       <c r="D74" s="7">
@@ -6802,7 +6801,7 @@
       <c r="B75" s="7">
         <v>36</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="35" t="s">
         <v>148</v>
       </c>
       <c r="D75" s="7">
@@ -6816,7 +6815,7 @@
       <c r="B76" s="7">
         <v>36</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="35" t="s">
         <v>120</v>
       </c>
       <c r="D76" s="7">
@@ -6858,7 +6857,7 @@
       <c r="B79" s="7">
         <v>38</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="35" t="s">
         <v>136</v>
       </c>
       <c r="D79" s="7">
@@ -6872,7 +6871,7 @@
       <c r="B80" s="7">
         <v>38</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="35" t="s">
         <v>137</v>
       </c>
       <c r="D80" s="7">
@@ -6886,7 +6885,7 @@
       <c r="B81" s="7">
         <v>38</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="35" t="s">
         <v>148</v>
       </c>
       <c r="D81" s="7">
@@ -6900,7 +6899,7 @@
       <c r="B82" s="7">
         <v>38</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="35" t="s">
         <v>120</v>
       </c>
       <c r="D82" s="7">
@@ -6950,7 +6949,7 @@
       <c r="B85" s="7">
         <v>40</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="35" t="s">
         <v>136</v>
       </c>
       <c r="D85" s="7">
@@ -6968,7 +6967,7 @@
       <c r="B86" s="7">
         <v>40</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="35" t="s">
         <v>137</v>
       </c>
       <c r="D86" s="7">
@@ -6986,7 +6985,7 @@
       <c r="B87" s="7">
         <v>40</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="35" t="s">
         <v>148</v>
       </c>
       <c r="D87" s="7">
@@ -7004,7 +7003,7 @@
       <c r="B88" s="7">
         <v>40</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="35" t="s">
         <v>120</v>
       </c>
       <c r="D88" s="7">
@@ -7058,7 +7057,7 @@
       <c r="B91" s="7">
         <v>42</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="35" t="s">
         <v>136</v>
       </c>
       <c r="D91" s="7">
@@ -7076,7 +7075,7 @@
       <c r="B92" s="7">
         <v>42</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="35" t="s">
         <v>137</v>
       </c>
       <c r="D92" s="7">
@@ -7094,7 +7093,7 @@
       <c r="B93" s="7">
         <v>42</v>
       </c>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="35" t="s">
         <v>148</v>
       </c>
       <c r="D93" s="7">
@@ -7112,7 +7111,7 @@
       <c r="B94" s="7">
         <v>42</v>
       </c>
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="35" t="s">
         <v>120</v>
       </c>
       <c r="D94" s="7">
@@ -7130,7 +7129,7 @@
       <c r="B95" s="7">
         <v>43</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C95" s="35" t="s">
         <v>136</v>
       </c>
       <c r="D95" s="7">
@@ -7148,7 +7147,7 @@
       <c r="B96" s="7">
         <v>43</v>
       </c>
-      <c r="C96" s="36" t="s">
+      <c r="C96" s="35" t="s">
         <v>137</v>
       </c>
       <c r="D96" s="7">
@@ -7166,7 +7165,7 @@
       <c r="B97" s="7">
         <v>43</v>
       </c>
-      <c r="C97" s="36" t="s">
+      <c r="C97" s="35" t="s">
         <v>148</v>
       </c>
       <c r="D97" s="7">
@@ -7184,7 +7183,7 @@
       <c r="B98" s="7">
         <v>43</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="35" t="s">
         <v>120</v>
       </c>
       <c r="D98" s="7">
@@ -7202,7 +7201,7 @@
       <c r="B99" s="7">
         <v>44</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="35" t="s">
         <v>151</v>
       </c>
       <c r="D99" s="7">
@@ -7220,7 +7219,7 @@
       <c r="B100" s="7">
         <v>44</v>
       </c>
-      <c r="C100" s="36" t="s">
+      <c r="C100" s="35" t="s">
         <v>152</v>
       </c>
       <c r="D100" s="7">
@@ -7238,7 +7237,7 @@
       <c r="B101" s="7">
         <v>44</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="35" t="s">
         <v>153</v>
       </c>
       <c r="D101" s="7">
@@ -7256,7 +7255,7 @@
       <c r="B102" s="7">
         <v>44</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="35" t="s">
         <v>154</v>
       </c>
       <c r="D102" s="7">
@@ -7274,7 +7273,7 @@
       <c r="B103" s="7">
         <v>44</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="35" t="s">
         <v>155</v>
       </c>
       <c r="D103" s="7">
@@ -7292,7 +7291,7 @@
       <c r="B104" s="7">
         <v>44</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="35" t="s">
         <v>156</v>
       </c>
       <c r="D104" s="7">
@@ -7310,7 +7309,7 @@
       <c r="B105" s="7">
         <v>44</v>
       </c>
-      <c r="C105" s="37" t="s">
+      <c r="C105" s="36" t="s">
         <v>157</v>
       </c>
       <c r="D105" s="7">
@@ -7328,7 +7327,7 @@
       <c r="B106" s="7">
         <v>44</v>
       </c>
-      <c r="C106" s="38" t="s">
+      <c r="C106" s="37" t="s">
         <v>158</v>
       </c>
       <c r="D106" s="7">
@@ -7346,7 +7345,7 @@
       <c r="B107" s="7">
         <v>44</v>
       </c>
-      <c r="C107" s="37" t="s">
+      <c r="C107" s="36" t="s">
         <v>159</v>
       </c>
       <c r="D107" s="7">
@@ -7378,7 +7377,7 @@
       <c r="B109" s="7">
         <v>44</v>
       </c>
-      <c r="C109" s="37" t="s">
+      <c r="C109" s="36" t="s">
         <v>161</v>
       </c>
       <c r="D109" s="7">
@@ -7436,7 +7435,7 @@
       <c r="B112" s="4">
         <v>46</v>
       </c>
-      <c r="C112" s="36" t="s">
+      <c r="C112" s="35" t="s">
         <v>136</v>
       </c>
       <c r="D112" s="4">
@@ -7450,7 +7449,7 @@
       <c r="B113" s="4">
         <v>46</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="35" t="s">
         <v>137</v>
       </c>
       <c r="D113" s="4">
@@ -7464,7 +7463,7 @@
       <c r="B114" s="4">
         <v>46</v>
       </c>
-      <c r="C114" s="36" t="s">
+      <c r="C114" s="35" t="s">
         <v>148</v>
       </c>
       <c r="D114" s="4">
@@ -7478,7 +7477,7 @@
       <c r="B115" s="4">
         <v>46</v>
       </c>
-      <c r="C115" s="36" t="s">
+      <c r="C115" s="35" t="s">
         <v>120</v>
       </c>
       <c r="D115" s="4">
@@ -7520,7 +7519,7 @@
       <c r="B118" s="4">
         <v>48</v>
       </c>
-      <c r="C118" s="36" t="s">
+      <c r="C118" s="35" t="s">
         <v>151</v>
       </c>
       <c r="D118" s="4">
@@ -7534,7 +7533,7 @@
       <c r="B119" s="4">
         <v>48</v>
       </c>
-      <c r="C119" s="36" t="s">
+      <c r="C119" s="35" t="s">
         <v>152</v>
       </c>
       <c r="D119" s="4">
@@ -7548,7 +7547,7 @@
       <c r="B120" s="4">
         <v>48</v>
       </c>
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="35" t="s">
         <v>153</v>
       </c>
       <c r="D120" s="4">
@@ -7562,7 +7561,7 @@
       <c r="B121" s="4">
         <v>48</v>
       </c>
-      <c r="C121" s="36" t="s">
+      <c r="C121" s="35" t="s">
         <v>154</v>
       </c>
       <c r="D121" s="4">
@@ -7576,7 +7575,7 @@
       <c r="B122" s="4">
         <v>48</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="35" t="s">
         <v>155</v>
       </c>
       <c r="D122" s="4">
@@ -7590,7 +7589,7 @@
       <c r="B123" s="4">
         <v>48</v>
       </c>
-      <c r="C123" s="36" t="s">
+      <c r="C123" s="35" t="s">
         <v>156</v>
       </c>
       <c r="D123" s="4">
@@ -7604,7 +7603,7 @@
       <c r="B124" s="4">
         <v>48</v>
       </c>
-      <c r="C124" s="37" t="s">
+      <c r="C124" s="36" t="s">
         <v>157</v>
       </c>
       <c r="D124" s="4">
@@ -7618,7 +7617,7 @@
       <c r="B125" s="4">
         <v>48</v>
       </c>
-      <c r="C125" s="38" t="s">
+      <c r="C125" s="37" t="s">
         <v>158</v>
       </c>
       <c r="D125" s="4">
@@ -7632,7 +7631,7 @@
       <c r="B126" s="4">
         <v>48</v>
       </c>
-      <c r="C126" s="37" t="s">
+      <c r="C126" s="36" t="s">
         <v>159</v>
       </c>
       <c r="D126" s="4">
@@ -7660,7 +7659,7 @@
       <c r="B128" s="4">
         <v>48</v>
       </c>
-      <c r="C128" s="37" t="s">
+      <c r="C128" s="36" t="s">
         <v>161</v>
       </c>
       <c r="D128" s="4">
@@ -7680,7 +7679,7 @@
       <c r="D129" s="4">
         <v>49</v>
       </c>
-      <c r="F129" s="39">
+      <c r="F129" s="38">
         <v>1000648</v>
       </c>
       <c r="G129" s="4" t="s">
@@ -7700,18 +7699,40 @@
       <c r="D130" s="4">
         <v>49</v>
       </c>
-      <c r="F130" s="39">
+      <c r="F130" s="38">
         <v>1000648</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="3:3">
-      <c r="C131" s="14"/>
-    </row>
-    <row r="132" spans="3:3">
-      <c r="C132" s="13"/>
+    <row r="131" spans="1:4">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4">
+        <v>50</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D131" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4">
+        <v>50</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D132" s="4">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7724,10 +7745,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -8164,7 +8185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" s="33" customFormat="1" spans="1:5">
+    <row r="26" s="32" customFormat="1" spans="1:5">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -8208,7 +8229,7 @@
       <c r="C28" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>185</v>
       </c>
       <c r="E28" s="7">
@@ -8242,7 +8263,7 @@
       <c r="C30" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>186</v>
       </c>
       <c r="E30" s="7">
@@ -8276,7 +8297,7 @@
       <c r="C32" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="34" t="s">
         <v>187</v>
       </c>
       <c r="E32" s="7">
@@ -8310,7 +8331,7 @@
       <c r="C34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="34" t="s">
         <v>188</v>
       </c>
       <c r="E34" s="7">
@@ -9096,6 +9117,40 @@
         <v>189</v>
       </c>
       <c r="E80" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4">
+        <v>50</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81" s="13">
+        <v>9</v>
+      </c>
+      <c r="E81" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4">
+        <v>50</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E82" s="13">
         <v>2</v>
       </c>
     </row>
@@ -9195,7 +9250,7 @@
       <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9687,26 +9742,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" s="33" customFormat="1" spans="1:7">
-      <c r="A21" s="34">
+    <row r="21" s="32" customFormat="1" spans="1:7">
+      <c r="A21" s="33">
         <v>20</v>
       </c>
-      <c r="B21" s="34">
-        <v>1</v>
-      </c>
-      <c r="C21" s="34">
+      <c r="B21" s="33">
+        <v>1</v>
+      </c>
+      <c r="C21" s="33">
         <v>20</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="33">
         <v>100</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <v>20</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="33">
         <v>180</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="33">
         <v>10</v>
       </c>
     </row>
@@ -11335,7 +11390,7 @@
       <c r="C6" s="4">
         <v>1568649600</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>219</v>
       </c>
     </row>
@@ -11522,7 +11577,7 @@
       <c r="B23" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="29">
         <v>1607961599</v>
       </c>
     </row>
@@ -11544,7 +11599,7 @@
       <c r="B25" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="29">
         <v>1608566399</v>
       </c>
     </row>
@@ -11555,7 +11610,7 @@
       <c r="B26" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="30">
         <v>1609171199</v>
       </c>
     </row>
@@ -11566,7 +11621,7 @@
       <c r="B27" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="30">
         <v>1609775999</v>
       </c>
     </row>
@@ -11577,7 +11632,7 @@
       <c r="B28" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="30">
         <v>1610380799</v>
       </c>
     </row>
@@ -11599,7 +11654,7 @@
       <c r="B30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="29">
         <v>1611590399</v>
       </c>
     </row>
@@ -11610,7 +11665,7 @@
       <c r="B31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="29">
         <v>1612195199</v>
       </c>
     </row>
@@ -11621,7 +11676,7 @@
       <c r="B32" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="29">
         <v>1612799999</v>
       </c>
     </row>
@@ -11654,7 +11709,7 @@
       <c r="B35" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="29">
         <v>1614009599</v>
       </c>
     </row>
@@ -11665,7 +11720,7 @@
       <c r="B36" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="29">
         <v>1614614399</v>
       </c>
     </row>
@@ -11676,7 +11731,7 @@
       <c r="B37" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="29">
         <v>1615219199</v>
       </c>
     </row>
@@ -11687,7 +11742,7 @@
       <c r="B38" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="29">
         <v>1615823999</v>
       </c>
     </row>
@@ -11698,7 +11753,7 @@
       <c r="B39" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="29">
         <v>1615823999</v>
       </c>
     </row>
@@ -11709,7 +11764,7 @@
       <c r="B40" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="29">
         <v>1616428799</v>
       </c>
     </row>
@@ -11720,7 +11775,7 @@
       <c r="B41" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="29">
         <v>1616428799</v>
       </c>
     </row>
@@ -11852,7 +11907,7 @@
       <c r="B53" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="31">
         <v>1621267199</v>
       </c>
     </row>
@@ -11863,7 +11918,7 @@
       <c r="B54" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="30">
         <v>1621871999</v>
       </c>
     </row>
@@ -11900,7 +11955,7 @@
   <sheetPr/>
   <dimension ref="A1:I344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A345" sqref="A345"/>
@@ -11913,7 +11968,7 @@
     <col min="4" max="4" width="10.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="17" customWidth="1"/>
     <col min="8" max="9" width="21" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11936,7 +11991,7 @@
       <c r="F1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>225</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -11956,10 +12011,10 @@
       <c r="E2" s="6">
         <v>5000000000</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>228</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -11982,7 +12037,7 @@
       <c r="F3" s="6">
         <v>5000000000</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>231</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -12005,7 +12060,7 @@
       <c r="F4" s="6">
         <v>1500000000</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>233</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -12028,7 +12083,7 @@
       <c r="F5" s="6">
         <v>500000000</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>235</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -12051,7 +12106,7 @@
       <c r="F6" s="6">
         <v>100000000</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>237</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -12071,7 +12126,7 @@
       <c r="F7" s="6">
         <v>30000000</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>238</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -12091,7 +12146,7 @@
       <c r="F8" s="6">
         <v>5000000</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>239</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -12111,7 +12166,7 @@
       <c r="F9" s="6">
         <v>2000000</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>240</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -12133,7 +12188,7 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>241</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -12154,7 +12209,7 @@
       <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>243</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -12174,7 +12229,7 @@
       <c r="D12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>244</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -12194,7 +12249,7 @@
       <c r="D13" s="4">
         <v>6</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>245</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -12214,7 +12269,7 @@
       <c r="D14" s="4">
         <v>10</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>246</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -12236,7 +12291,7 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>247</v>
       </c>
       <c r="H15" s="10" t="s">
@@ -12259,7 +12314,7 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>249</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -12282,7 +12337,7 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>250</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -12305,7 +12360,7 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>251</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -12328,7 +12383,7 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>252</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -12351,7 +12406,7 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>253</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -12374,7 +12429,7 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>254</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -12397,7 +12452,7 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>255</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -12420,7 +12475,7 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="22" t="s">
         <v>256</v>
       </c>
       <c r="H23" s="8" t="s">
@@ -12443,7 +12498,7 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="22" t="s">
         <v>257</v>
       </c>
       <c r="H24" s="8" t="s">
@@ -12466,7 +12521,7 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="22" t="s">
         <v>258</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -12489,7 +12544,7 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>259</v>
       </c>
       <c r="H26" s="8" t="s">
@@ -12512,7 +12567,7 @@
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>260</v>
       </c>
       <c r="H27" s="10" t="s">
@@ -12535,7 +12590,7 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="22" t="s">
         <v>261</v>
       </c>
       <c r="H28" s="8" t="s">
@@ -12557,7 +12612,7 @@
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="22" t="s">
         <v>262</v>
       </c>
       <c r="H29" s="8" t="s">
@@ -12579,7 +12634,7 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="22" t="s">
         <v>263</v>
       </c>
       <c r="H30" s="8" t="s">
@@ -12601,7 +12656,7 @@
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="22" t="s">
         <v>264</v>
       </c>
       <c r="H31" s="8" t="s">
@@ -12623,7 +12678,7 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="22" t="s">
         <v>265</v>
       </c>
       <c r="H32" s="8" t="s">
@@ -12645,7 +12700,7 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="22" t="s">
         <v>266</v>
       </c>
       <c r="H33" s="8" t="s">
@@ -12667,7 +12722,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="22" t="s">
         <v>267</v>
       </c>
       <c r="H34" s="8" t="s">
@@ -12689,7 +12744,7 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="22" t="s">
         <v>268</v>
       </c>
       <c r="H35" s="8" t="s">
@@ -12711,7 +12766,7 @@
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="22" t="s">
         <v>269</v>
       </c>
       <c r="H36" s="8" t="s">
@@ -12733,7 +12788,7 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="22" t="s">
         <v>270</v>
       </c>
       <c r="H37" s="8" t="s">
@@ -12755,7 +12810,7 @@
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="22" t="s">
         <v>271</v>
       </c>
       <c r="H38" s="8" t="s">
@@ -12777,7 +12832,7 @@
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="21" t="s">
         <v>272</v>
       </c>
       <c r="H39" s="10" t="s">
@@ -12800,7 +12855,7 @@
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="22" t="s">
         <v>273</v>
       </c>
       <c r="H40" s="8" t="s">
@@ -12822,7 +12877,7 @@
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="22" t="s">
         <v>274</v>
       </c>
       <c r="H41" s="8" t="s">
@@ -12844,7 +12899,7 @@
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="22" t="s">
         <v>275</v>
       </c>
       <c r="H42" s="8" t="s">
@@ -12866,7 +12921,7 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="22" t="s">
         <v>276</v>
       </c>
       <c r="H43" s="8" t="s">
@@ -12888,7 +12943,7 @@
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="22" t="s">
         <v>277</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -12910,7 +12965,7 @@
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="22" t="s">
         <v>278</v>
       </c>
       <c r="H45" s="8" t="s">
@@ -12932,7 +12987,7 @@
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="22" t="s">
         <v>279</v>
       </c>
       <c r="H46" s="8" t="s">
@@ -12954,7 +13009,7 @@
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="22" t="s">
         <v>280</v>
       </c>
       <c r="H47" s="8" t="s">
@@ -12976,7 +13031,7 @@
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="22" t="s">
         <v>281</v>
       </c>
       <c r="H48" s="8" t="s">
@@ -12998,7 +13053,7 @@
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="22" t="s">
         <v>282</v>
       </c>
       <c r="H49" s="8" t="s">
@@ -13020,7 +13075,7 @@
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="22" t="s">
+      <c r="G50" s="21" t="s">
         <v>283</v>
       </c>
       <c r="H50" s="10" t="s">
@@ -13043,7 +13098,7 @@
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="23" t="s">
+      <c r="G51" s="22" t="s">
         <v>284</v>
       </c>
       <c r="H51" s="8" t="s">
@@ -13065,7 +13120,7 @@
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="22" t="s">
         <v>285</v>
       </c>
       <c r="H52" s="8" t="s">
@@ -13087,7 +13142,7 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="22" t="s">
         <v>286</v>
       </c>
       <c r="H53" s="8" t="s">
@@ -13109,7 +13164,7 @@
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="22" t="s">
         <v>287</v>
       </c>
       <c r="H54" s="8" t="s">
@@ -13131,7 +13186,7 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="22" t="s">
         <v>288</v>
       </c>
       <c r="H55" s="8" t="s">
@@ -13153,7 +13208,7 @@
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="22" t="s">
         <v>289</v>
       </c>
       <c r="H56" s="8" t="s">
@@ -13175,7 +13230,7 @@
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="22" t="s">
+      <c r="G57" s="21" t="s">
         <v>290</v>
       </c>
       <c r="H57" s="10" t="s">
@@ -13197,7 +13252,7 @@
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="22" t="s">
         <v>291</v>
       </c>
       <c r="H58" s="8" t="s">
@@ -13219,7 +13274,7 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="22" t="s">
         <v>292</v>
       </c>
       <c r="H59" s="8" t="s">
@@ -13241,7 +13296,7 @@
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="22" t="s">
         <v>293</v>
       </c>
       <c r="H60" s="8" t="s">
@@ -13263,7 +13318,7 @@
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="23" t="s">
+      <c r="G61" s="22" t="s">
         <v>294</v>
       </c>
       <c r="H61" s="8" t="s">
@@ -13285,7 +13340,7 @@
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="23" t="s">
+      <c r="G62" s="22" t="s">
         <v>295</v>
       </c>
       <c r="H62" s="8" t="s">
@@ -13307,7 +13362,7 @@
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="23" t="s">
+      <c r="G63" s="22" t="s">
         <v>296</v>
       </c>
       <c r="H63" s="8" t="s">
@@ -13329,7 +13384,7 @@
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="22" t="s">
+      <c r="G64" s="21" t="s">
         <v>297</v>
       </c>
       <c r="H64" s="10" t="s">
@@ -13351,7 +13406,7 @@
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="23" t="s">
+      <c r="G65" s="22" t="s">
         <v>298</v>
       </c>
       <c r="H65" s="8" t="s">
@@ -13373,7 +13428,7 @@
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="23" t="s">
+      <c r="G66" s="22" t="s">
         <v>299</v>
       </c>
       <c r="H66" s="8" t="s">
@@ -13395,7 +13450,7 @@
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="23" t="s">
+      <c r="G67" s="22" t="s">
         <v>300</v>
       </c>
       <c r="H67" s="8" t="s">
@@ -13417,7 +13472,7 @@
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="23" t="s">
+      <c r="G68" s="22" t="s">
         <v>301</v>
       </c>
       <c r="H68" s="8" t="s">
@@ -13439,7 +13494,7 @@
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="23" t="s">
+      <c r="G69" s="22" t="s">
         <v>302</v>
       </c>
       <c r="H69" s="8" t="s">
@@ -13461,35 +13516,35 @@
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="23" t="s">
+      <c r="G70" s="22" t="s">
         <v>303</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="71" s="17" customFormat="1" spans="1:9">
-      <c r="A71" s="24">
+    <row r="71" s="16" customFormat="1" spans="1:9">
+      <c r="A71" s="23">
         <v>70</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B71" s="23">
         <v>9</v>
       </c>
-      <c r="C71" s="24">
-        <v>1</v>
-      </c>
-      <c r="D71" s="24">
+      <c r="C71" s="23">
+        <v>1</v>
+      </c>
+      <c r="D71" s="23">
         <v>10</v>
       </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="25" t="s">
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="H71" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="I71" s="24"/>
+      <c r="H71" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="I71" s="23"/>
     </row>
     <row r="72" s="2" customFormat="1" spans="1:9">
       <c r="A72" s="7">
@@ -13506,7 +13561,7 @@
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="23" t="s">
+      <c r="G72" s="22" t="s">
         <v>305</v>
       </c>
       <c r="H72" s="8" t="s">
@@ -13529,7 +13584,7 @@
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="23" t="s">
+      <c r="G73" s="22" t="s">
         <v>306</v>
       </c>
       <c r="H73" s="8" t="s">
@@ -13552,7 +13607,7 @@
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="23" t="s">
+      <c r="G74" s="22" t="s">
         <v>307</v>
       </c>
       <c r="H74" s="8" t="s">
@@ -13575,7 +13630,7 @@
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="23" t="s">
+      <c r="G75" s="22" t="s">
         <v>308</v>
       </c>
       <c r="H75" s="8" t="s">
@@ -13598,7 +13653,7 @@
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="23" t="s">
+      <c r="G76" s="22" t="s">
         <v>309</v>
       </c>
       <c r="H76" s="8" t="s">
@@ -13621,7 +13676,7 @@
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="23" t="s">
+      <c r="G77" s="22" t="s">
         <v>310</v>
       </c>
       <c r="H77" s="8" t="s">
@@ -13644,7 +13699,7 @@
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="23" t="s">
+      <c r="G78" s="22" t="s">
         <v>311</v>
       </c>
       <c r="H78" s="8" t="s">
@@ -13667,7 +13722,7 @@
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="23" t="s">
+      <c r="G79" s="22" t="s">
         <v>312</v>
       </c>
       <c r="H79" s="8" t="s">
@@ -13690,7 +13745,7 @@
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="23" t="s">
+      <c r="G80" s="22" t="s">
         <v>313</v>
       </c>
       <c r="H80" s="8" t="s">
@@ -13713,7 +13768,7 @@
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="23" t="s">
+      <c r="G81" s="22" t="s">
         <v>314</v>
       </c>
       <c r="H81" s="8" t="s">
@@ -13736,7 +13791,7 @@
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-      <c r="G82" s="23" t="s">
+      <c r="G82" s="22" t="s">
         <v>315</v>
       </c>
       <c r="H82" s="8" t="s">
@@ -13759,7 +13814,7 @@
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="23" t="s">
+      <c r="G83" s="22" t="s">
         <v>316</v>
       </c>
       <c r="H83" s="8" t="s">
@@ -13782,7 +13837,7 @@
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="23" t="s">
+      <c r="G84" s="22" t="s">
         <v>317</v>
       </c>
       <c r="H84" s="8" t="s">
@@ -13805,7 +13860,7 @@
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="23" t="s">
+      <c r="G85" s="22" t="s">
         <v>318</v>
       </c>
       <c r="H85" s="8" t="s">
@@ -13828,7 +13883,7 @@
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="23" t="s">
+      <c r="G86" s="22" t="s">
         <v>319</v>
       </c>
       <c r="H86" s="8" t="s">
@@ -13851,7 +13906,7 @@
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="23" t="s">
+      <c r="G87" s="22" t="s">
         <v>320</v>
       </c>
       <c r="H87" s="8" t="s">
@@ -13874,7 +13929,7 @@
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="23" t="s">
+      <c r="G88" s="22" t="s">
         <v>321</v>
       </c>
       <c r="H88" s="8" t="s">
@@ -13897,7 +13952,7 @@
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="23" t="s">
+      <c r="G89" s="22" t="s">
         <v>322</v>
       </c>
       <c r="H89" s="8" t="s">
@@ -13920,7 +13975,7 @@
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="23" t="s">
+      <c r="G90" s="22" t="s">
         <v>323</v>
       </c>
       <c r="H90" s="8" t="s">
@@ -13943,7 +13998,7 @@
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="23" t="s">
+      <c r="G91" s="22" t="s">
         <v>324</v>
       </c>
       <c r="H91" s="8" t="s">
@@ -13966,7 +14021,7 @@
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="23" t="s">
+      <c r="G92" s="22" t="s">
         <v>325</v>
       </c>
       <c r="H92" s="8" t="s">
@@ -13989,7 +14044,7 @@
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="23" t="s">
+      <c r="G93" s="22" t="s">
         <v>326</v>
       </c>
       <c r="H93" s="8" t="s">
@@ -14012,7 +14067,7 @@
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="23" t="s">
+      <c r="G94" s="22" t="s">
         <v>327</v>
       </c>
       <c r="H94" s="8" t="s">
@@ -14035,7 +14090,7 @@
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="23" t="s">
+      <c r="G95" s="22" t="s">
         <v>328</v>
       </c>
       <c r="H95" s="8" t="s">
@@ -14058,7 +14113,7 @@
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
-      <c r="G96" s="23" t="s">
+      <c r="G96" s="22" t="s">
         <v>329</v>
       </c>
       <c r="H96" s="8" t="s">
@@ -14081,7 +14136,7 @@
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
-      <c r="G97" s="23" t="s">
+      <c r="G97" s="22" t="s">
         <v>330</v>
       </c>
       <c r="H97" s="8" t="s">
@@ -14104,7 +14159,7 @@
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
-      <c r="G98" s="23" t="s">
+      <c r="G98" s="22" t="s">
         <v>331</v>
       </c>
       <c r="H98" s="8" t="s">
@@ -14127,7 +14182,7 @@
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="23" t="s">
+      <c r="G99" s="22" t="s">
         <v>332</v>
       </c>
       <c r="H99" s="8" t="s">
@@ -14150,7 +14205,7 @@
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
-      <c r="G100" s="23" t="s">
+      <c r="G100" s="22" t="s">
         <v>333</v>
       </c>
       <c r="H100" s="8" t="s">
@@ -14173,7 +14228,7 @@
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="23" t="s">
+      <c r="G101" s="22" t="s">
         <v>334</v>
       </c>
       <c r="H101" s="8" t="s">
@@ -14196,7 +14251,7 @@
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
-      <c r="G102" s="23" t="s">
+      <c r="G102" s="22" t="s">
         <v>335</v>
       </c>
       <c r="H102" s="8" t="s">
@@ -14219,7 +14274,7 @@
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="23" t="s">
+      <c r="G103" s="22" t="s">
         <v>331</v>
       </c>
       <c r="H103" s="8" t="s">
@@ -14242,7 +14297,7 @@
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
-      <c r="G104" s="23" t="s">
+      <c r="G104" s="22" t="s">
         <v>332</v>
       </c>
       <c r="H104" s="8" t="s">
@@ -14265,7 +14320,7 @@
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
-      <c r="G105" s="23" t="s">
+      <c r="G105" s="22" t="s">
         <v>333</v>
       </c>
       <c r="H105" s="8" t="s">
@@ -14288,7 +14343,7 @@
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
-      <c r="G106" s="23" t="s">
+      <c r="G106" s="22" t="s">
         <v>334</v>
       </c>
       <c r="H106" s="8" t="s">
@@ -14311,7 +14366,7 @@
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
-      <c r="G107" s="23" t="s">
+      <c r="G107" s="22" t="s">
         <v>335</v>
       </c>
       <c r="H107" s="8" t="s">
@@ -14334,7 +14389,7 @@
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
-      <c r="G108" s="23" t="s">
+      <c r="G108" s="22" t="s">
         <v>331</v>
       </c>
       <c r="H108" s="8" t="s">
@@ -14357,7 +14412,7 @@
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-      <c r="G109" s="23" t="s">
+      <c r="G109" s="22" t="s">
         <v>332</v>
       </c>
       <c r="H109" s="8" t="s">
@@ -14380,7 +14435,7 @@
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
-      <c r="G110" s="23" t="s">
+      <c r="G110" s="22" t="s">
         <v>333</v>
       </c>
       <c r="H110" s="8" t="s">
@@ -14403,7 +14458,7 @@
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
-      <c r="G111" s="23" t="s">
+      <c r="G111" s="22" t="s">
         <v>334</v>
       </c>
       <c r="H111" s="8" t="s">
@@ -14426,7 +14481,7 @@
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
-      <c r="G112" s="23" t="s">
+      <c r="G112" s="22" t="s">
         <v>335</v>
       </c>
       <c r="H112" s="8" t="s">
@@ -14449,7 +14504,7 @@
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
-      <c r="G113" s="23" t="s">
+      <c r="G113" s="22" t="s">
         <v>331</v>
       </c>
       <c r="H113" s="8" t="s">
@@ -14472,7 +14527,7 @@
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
-      <c r="G114" s="23" t="s">
+      <c r="G114" s="22" t="s">
         <v>332</v>
       </c>
       <c r="H114" s="8" t="s">
@@ -14495,7 +14550,7 @@
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="23" t="s">
+      <c r="G115" s="22" t="s">
         <v>333</v>
       </c>
       <c r="H115" s="8" t="s">
@@ -14518,7 +14573,7 @@
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
-      <c r="G116" s="23" t="s">
+      <c r="G116" s="22" t="s">
         <v>334</v>
       </c>
       <c r="H116" s="8" t="s">
@@ -14541,7 +14596,7 @@
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
-      <c r="G117" s="23" t="s">
+      <c r="G117" s="22" t="s">
         <v>335</v>
       </c>
       <c r="H117" s="8" t="s">
@@ -14564,7 +14619,7 @@
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
-      <c r="G118" s="23" t="s">
+      <c r="G118" s="22" t="s">
         <v>336</v>
       </c>
       <c r="H118" s="8" t="s">
@@ -14587,7 +14642,7 @@
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
-      <c r="G119" s="23" t="s">
+      <c r="G119" s="22" t="s">
         <v>337</v>
       </c>
       <c r="H119" s="8" t="s">
@@ -14610,7 +14665,7 @@
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
-      <c r="G120" s="23" t="s">
+      <c r="G120" s="22" t="s">
         <v>338</v>
       </c>
       <c r="H120" s="8" t="s">
@@ -14633,7 +14688,7 @@
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
-      <c r="G121" s="23" t="s">
+      <c r="G121" s="22" t="s">
         <v>339</v>
       </c>
       <c r="H121" s="8" t="s">
@@ -14656,7 +14711,7 @@
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
-      <c r="G122" s="23" t="s">
+      <c r="G122" s="22" t="s">
         <v>340</v>
       </c>
       <c r="H122" s="8" t="s">
@@ -14679,7 +14734,7 @@
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
-      <c r="G123" s="23" t="s">
+      <c r="G123" s="22" t="s">
         <v>341</v>
       </c>
       <c r="H123" s="8" t="s">
@@ -14702,7 +14757,7 @@
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
-      <c r="G124" s="23" t="s">
+      <c r="G124" s="22" t="s">
         <v>342</v>
       </c>
       <c r="H124" s="8" t="s">
@@ -14725,7 +14780,7 @@
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
-      <c r="G125" s="23" t="s">
+      <c r="G125" s="22" t="s">
         <v>343</v>
       </c>
       <c r="H125" s="8" t="s">
@@ -14748,7 +14803,7 @@
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
-      <c r="G126" s="23" t="s">
+      <c r="G126" s="22" t="s">
         <v>344</v>
       </c>
       <c r="H126" s="8" t="s">
@@ -14770,7 +14825,7 @@
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
-      <c r="G127" s="23" t="s">
+      <c r="G127" s="22" t="s">
         <v>345</v>
       </c>
       <c r="H127" s="8" t="s">
@@ -14793,7 +14848,7 @@
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
-      <c r="G128" s="23" t="s">
+      <c r="G128" s="22" t="s">
         <v>346</v>
       </c>
       <c r="H128" s="8" t="s">
@@ -14815,7 +14870,7 @@
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
-      <c r="G129" s="23" t="s">
+      <c r="G129" s="22" t="s">
         <v>347</v>
       </c>
       <c r="H129" s="8" t="s">
@@ -14837,7 +14892,7 @@
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
-      <c r="G130" s="23" t="s">
+      <c r="G130" s="22" t="s">
         <v>348</v>
       </c>
       <c r="H130" s="8" t="s">
@@ -14859,7 +14914,7 @@
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
-      <c r="G131" s="23" t="s">
+      <c r="G131" s="22" t="s">
         <v>349</v>
       </c>
       <c r="H131" s="8" t="s">
@@ -14881,7 +14936,7 @@
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
-      <c r="G132" s="23" t="s">
+      <c r="G132" s="22" t="s">
         <v>350</v>
       </c>
       <c r="H132" s="8" t="s">
@@ -14903,7 +14958,7 @@
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
-      <c r="G133" s="23" t="s">
+      <c r="G133" s="22" t="s">
         <v>351</v>
       </c>
       <c r="H133" s="8" t="s">
@@ -14925,7 +14980,7 @@
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
-      <c r="G134" s="23" t="s">
+      <c r="G134" s="22" t="s">
         <v>352</v>
       </c>
       <c r="H134" s="8" t="s">
@@ -14947,7 +15002,7 @@
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
-      <c r="G135" s="23" t="s">
+      <c r="G135" s="22" t="s">
         <v>353</v>
       </c>
       <c r="H135" s="8" t="s">
@@ -14969,7 +15024,7 @@
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
-      <c r="G136" s="23" t="s">
+      <c r="G136" s="22" t="s">
         <v>354</v>
       </c>
       <c r="H136" s="8" t="s">
@@ -14991,7 +15046,7 @@
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
-      <c r="G137" s="23" t="s">
+      <c r="G137" s="22" t="s">
         <v>355</v>
       </c>
       <c r="H137" s="8" t="s">
@@ -15013,7 +15068,7 @@
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
-      <c r="G138" s="23" t="s">
+      <c r="G138" s="22" t="s">
         <v>356</v>
       </c>
       <c r="H138" s="8" t="s">
@@ -15035,7 +15090,7 @@
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
-      <c r="G139" s="23" t="s">
+      <c r="G139" s="22" t="s">
         <v>357</v>
       </c>
       <c r="H139" s="8" t="s">
@@ -15057,7 +15112,7 @@
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
-      <c r="G140" s="23" t="s">
+      <c r="G140" s="22" t="s">
         <v>358</v>
       </c>
       <c r="H140" s="8" t="s">
@@ -15079,7 +15134,7 @@
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
-      <c r="G141" s="23" t="s">
+      <c r="G141" s="22" t="s">
         <v>359</v>
       </c>
       <c r="H141" s="8" t="s">
@@ -15101,7 +15156,7 @@
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
-      <c r="G142" s="23" t="s">
+      <c r="G142" s="22" t="s">
         <v>360</v>
       </c>
       <c r="H142" s="8" t="s">
@@ -15123,7 +15178,7 @@
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
-      <c r="G143" s="23" t="s">
+      <c r="G143" s="22" t="s">
         <v>361</v>
       </c>
       <c r="H143" s="8" t="s">
@@ -15145,7 +15200,7 @@
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
-      <c r="G144" s="23" t="s">
+      <c r="G144" s="22" t="s">
         <v>362</v>
       </c>
       <c r="H144" s="8" t="s">
@@ -15167,7 +15222,7 @@
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
-      <c r="G145" s="23" t="s">
+      <c r="G145" s="22" t="s">
         <v>363</v>
       </c>
       <c r="H145" s="8" t="s">
@@ -15189,7 +15244,7 @@
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
-      <c r="G146" s="23" t="s">
+      <c r="G146" s="22" t="s">
         <v>364</v>
       </c>
       <c r="H146" s="8" t="s">
@@ -15211,7 +15266,7 @@
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
-      <c r="G147" s="23" t="s">
+      <c r="G147" s="22" t="s">
         <v>365</v>
       </c>
       <c r="H147" s="8" t="s">
@@ -15233,7 +15288,7 @@
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
-      <c r="G148" s="23" t="s">
+      <c r="G148" s="22" t="s">
         <v>366</v>
       </c>
       <c r="H148" s="8" t="s">
@@ -15255,7 +15310,7 @@
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
-      <c r="G149" s="23" t="s">
+      <c r="G149" s="22" t="s">
         <v>367</v>
       </c>
       <c r="H149" s="8" t="s">
@@ -15277,7 +15332,7 @@
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
-      <c r="G150" s="23" t="s">
+      <c r="G150" s="22" t="s">
         <v>368</v>
       </c>
       <c r="H150" s="8" t="s">
@@ -15299,7 +15354,7 @@
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
-      <c r="G151" s="23" t="s">
+      <c r="G151" s="22" t="s">
         <v>369</v>
       </c>
       <c r="H151" s="8" t="s">
@@ -15321,7 +15376,7 @@
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
-      <c r="G152" s="23" t="s">
+      <c r="G152" s="22" t="s">
         <v>370</v>
       </c>
       <c r="H152" s="8" t="s">
@@ -15343,7 +15398,7 @@
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
-      <c r="G153" s="23" t="s">
+      <c r="G153" s="22" t="s">
         <v>371</v>
       </c>
       <c r="H153" s="8" t="s">
@@ -15365,7 +15420,7 @@
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
-      <c r="G154" s="23" t="s">
+      <c r="G154" s="22" t="s">
         <v>372</v>
       </c>
       <c r="H154" s="8" t="s">
@@ -15387,7 +15442,7 @@
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
-      <c r="G155" s="23" t="s">
+      <c r="G155" s="22" t="s">
         <v>373</v>
       </c>
       <c r="H155" s="8" t="s">
@@ -15409,7 +15464,7 @@
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
-      <c r="G156" s="23" t="s">
+      <c r="G156" s="22" t="s">
         <v>374</v>
       </c>
       <c r="H156" s="8" t="s">
@@ -15431,7 +15486,7 @@
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
-      <c r="G157" s="23" t="s">
+      <c r="G157" s="22" t="s">
         <v>375</v>
       </c>
       <c r="H157" s="8" t="s">
@@ -15453,7 +15508,7 @@
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
-      <c r="G158" s="23" t="s">
+      <c r="G158" s="22" t="s">
         <v>376</v>
       </c>
       <c r="H158" s="8" t="s">
@@ -15475,7 +15530,7 @@
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
-      <c r="G159" s="23" t="s">
+      <c r="G159" s="22" t="s">
         <v>377</v>
       </c>
       <c r="H159" s="8" t="s">
@@ -15497,7 +15552,7 @@
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
-      <c r="G160" s="23" t="s">
+      <c r="G160" s="22" t="s">
         <v>378</v>
       </c>
       <c r="H160" s="8" t="s">
@@ -15519,7 +15574,7 @@
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
-      <c r="G161" s="23" t="s">
+      <c r="G161" s="22" t="s">
         <v>379</v>
       </c>
       <c r="H161" s="8" t="s">
@@ -15541,7 +15596,7 @@
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
-      <c r="G162" s="23" t="s">
+      <c r="G162" s="22" t="s">
         <v>380</v>
       </c>
       <c r="H162" s="8" t="s">
@@ -15563,7 +15618,7 @@
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
-      <c r="G163" s="23" t="s">
+      <c r="G163" s="22" t="s">
         <v>381</v>
       </c>
       <c r="H163" s="8" t="s">
@@ -15585,7 +15640,7 @@
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
-      <c r="G164" s="23" t="s">
+      <c r="G164" s="22" t="s">
         <v>382</v>
       </c>
       <c r="H164" s="8" t="s">
@@ -15607,7 +15662,7 @@
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
-      <c r="G165" s="23" t="s">
+      <c r="G165" s="22" t="s">
         <v>383</v>
       </c>
       <c r="H165" s="8" t="s">
@@ -15629,7 +15684,7 @@
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
-      <c r="G166" s="23" t="s">
+      <c r="G166" s="22" t="s">
         <v>384</v>
       </c>
       <c r="H166" s="8" t="s">
@@ -15651,7 +15706,7 @@
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
-      <c r="G167" s="23" t="s">
+      <c r="G167" s="22" t="s">
         <v>385</v>
       </c>
       <c r="H167" s="8" t="s">
@@ -15673,7 +15728,7 @@
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
-      <c r="G168" s="23" t="s">
+      <c r="G168" s="22" t="s">
         <v>386</v>
       </c>
       <c r="H168" s="8" t="s">
@@ -15695,7 +15750,7 @@
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
-      <c r="G169" s="23" t="s">
+      <c r="G169" s="22" t="s">
         <v>387</v>
       </c>
       <c r="H169" s="8" t="s">
@@ -15717,7 +15772,7 @@
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
-      <c r="G170" s="23" t="s">
+      <c r="G170" s="22" t="s">
         <v>388</v>
       </c>
       <c r="H170" s="8" t="s">
@@ -15739,7 +15794,7 @@
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
-      <c r="G171" s="23" t="s">
+      <c r="G171" s="22" t="s">
         <v>389</v>
       </c>
       <c r="H171" s="8" t="s">
@@ -15761,7 +15816,7 @@
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
-      <c r="G172" s="23" t="s">
+      <c r="G172" s="22" t="s">
         <v>390</v>
       </c>
       <c r="H172" s="8" t="s">
@@ -15783,7 +15838,7 @@
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
-      <c r="G173" s="23" t="s">
+      <c r="G173" s="22" t="s">
         <v>391</v>
       </c>
       <c r="H173" s="8" t="s">
@@ -15805,7 +15860,7 @@
       </c>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
-      <c r="G174" s="23" t="s">
+      <c r="G174" s="22" t="s">
         <v>392</v>
       </c>
       <c r="H174" s="8" t="s">
@@ -15827,7 +15882,7 @@
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
-      <c r="G175" s="23" t="s">
+      <c r="G175" s="22" t="s">
         <v>393</v>
       </c>
       <c r="H175" s="8" t="s">
@@ -15849,7 +15904,7 @@
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
-      <c r="G176" s="23" t="s">
+      <c r="G176" s="22" t="s">
         <v>394</v>
       </c>
       <c r="H176" s="8" t="s">
@@ -15871,7 +15926,7 @@
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
-      <c r="G177" s="23" t="s">
+      <c r="G177" s="22" t="s">
         <v>395</v>
       </c>
       <c r="H177" s="8" t="s">
@@ -15893,7 +15948,7 @@
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
-      <c r="G178" s="23" t="s">
+      <c r="G178" s="22" t="s">
         <v>396</v>
       </c>
       <c r="H178" s="8" t="s">
@@ -15915,7 +15970,7 @@
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
-      <c r="G179" s="23" t="s">
+      <c r="G179" s="22" t="s">
         <v>397</v>
       </c>
       <c r="H179" s="8" t="s">
@@ -15937,7 +15992,7 @@
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
-      <c r="G180" s="23" t="s">
+      <c r="G180" s="22" t="s">
         <v>398</v>
       </c>
       <c r="H180" s="8" t="s">
@@ -15959,7 +16014,7 @@
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
-      <c r="G181" s="23" t="s">
+      <c r="G181" s="22" t="s">
         <v>399</v>
       </c>
       <c r="H181" s="8" t="s">
@@ -15981,7 +16036,7 @@
       </c>
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
-      <c r="G182" s="23" t="s">
+      <c r="G182" s="22" t="s">
         <v>400</v>
       </c>
       <c r="H182" s="8" t="s">
@@ -16003,7 +16058,7 @@
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
-      <c r="G183" s="23" t="s">
+      <c r="G183" s="22" t="s">
         <v>401</v>
       </c>
       <c r="H183" s="8" t="s">
@@ -16025,7 +16080,7 @@
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
-      <c r="G184" s="23" t="s">
+      <c r="G184" s="22" t="s">
         <v>402</v>
       </c>
       <c r="H184" s="8" t="s">
@@ -16047,7 +16102,7 @@
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
-      <c r="G185" s="23" t="s">
+      <c r="G185" s="22" t="s">
         <v>403</v>
       </c>
       <c r="H185" s="8" t="s">
@@ -16069,7 +16124,7 @@
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
-      <c r="G186" s="23" t="s">
+      <c r="G186" s="22" t="s">
         <v>404</v>
       </c>
       <c r="H186" s="8" t="s">
@@ -16092,7 +16147,7 @@
       </c>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
-      <c r="G187" s="23" t="s">
+      <c r="G187" s="22" t="s">
         <v>405</v>
       </c>
       <c r="H187" s="8" t="s">
@@ -16115,7 +16170,7 @@
       </c>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
-      <c r="G188" s="23" t="s">
+      <c r="G188" s="22" t="s">
         <v>406</v>
       </c>
       <c r="H188" s="8" t="s">
@@ -16138,7 +16193,7 @@
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
-      <c r="G189" s="23" t="s">
+      <c r="G189" s="22" t="s">
         <v>407</v>
       </c>
       <c r="H189" s="8" t="s">
@@ -16161,7 +16216,7 @@
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
-      <c r="G190" s="23" t="s">
+      <c r="G190" s="22" t="s">
         <v>408</v>
       </c>
       <c r="H190" s="8" t="s">
@@ -16184,7 +16239,7 @@
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
-      <c r="G191" s="23" t="s">
+      <c r="G191" s="22" t="s">
         <v>409</v>
       </c>
       <c r="H191" s="8" t="s">
@@ -16207,7 +16262,7 @@
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
-      <c r="G192" s="23" t="s">
+      <c r="G192" s="22" t="s">
         <v>410</v>
       </c>
       <c r="H192" s="8" t="s">
@@ -16230,7 +16285,7 @@
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
-      <c r="G193" s="23" t="s">
+      <c r="G193" s="22" t="s">
         <v>411</v>
       </c>
       <c r="H193" s="8" t="s">
@@ -16253,7 +16308,7 @@
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
-      <c r="G194" s="23" t="s">
+      <c r="G194" s="22" t="s">
         <v>412</v>
       </c>
       <c r="H194" s="8" t="s">
@@ -16276,7 +16331,7 @@
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
-      <c r="G195" s="23" t="s">
+      <c r="G195" s="22" t="s">
         <v>413</v>
       </c>
       <c r="H195" s="8" t="s">
@@ -16299,7 +16354,7 @@
       </c>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
-      <c r="G196" s="23" t="s">
+      <c r="G196" s="22" t="s">
         <v>414</v>
       </c>
       <c r="H196" s="8" t="s">
@@ -16322,7 +16377,7 @@
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
-      <c r="G197" s="23" t="s">
+      <c r="G197" s="22" t="s">
         <v>415</v>
       </c>
       <c r="H197" s="8" t="s">
@@ -16345,7 +16400,7 @@
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
-      <c r="G198" s="23" t="s">
+      <c r="G198" s="22" t="s">
         <v>416</v>
       </c>
       <c r="H198" s="8" t="s">
@@ -16368,7 +16423,7 @@
       </c>
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
-      <c r="G199" s="23" t="s">
+      <c r="G199" s="22" t="s">
         <v>417</v>
       </c>
       <c r="H199" s="8" t="s">
@@ -16391,7 +16446,7 @@
       </c>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
-      <c r="G200" s="23" t="s">
+      <c r="G200" s="22" t="s">
         <v>418</v>
       </c>
       <c r="H200" s="8" t="s">
@@ -16414,7 +16469,7 @@
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
-      <c r="G201" s="23" t="s">
+      <c r="G201" s="22" t="s">
         <v>419</v>
       </c>
       <c r="H201" s="8" t="s">
@@ -16437,7 +16492,7 @@
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
-      <c r="G202" s="23" t="s">
+      <c r="G202" s="22" t="s">
         <v>420</v>
       </c>
       <c r="H202" s="8" t="s">
@@ -16460,7 +16515,7 @@
       </c>
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
-      <c r="G203" s="23" t="s">
+      <c r="G203" s="22" t="s">
         <v>421</v>
       </c>
       <c r="H203" s="8" t="s">
@@ -16483,7 +16538,7 @@
       </c>
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
-      <c r="G204" s="23" t="s">
+      <c r="G204" s="22" t="s">
         <v>422</v>
       </c>
       <c r="H204" s="8" t="s">
@@ -16506,7 +16561,7 @@
       </c>
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
-      <c r="G205" s="23" t="s">
+      <c r="G205" s="22" t="s">
         <v>423</v>
       </c>
       <c r="H205" s="8" t="s">
@@ -16529,7 +16584,7 @@
       </c>
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
-      <c r="G206" s="23" t="s">
+      <c r="G206" s="22" t="s">
         <v>424</v>
       </c>
       <c r="H206" s="8" t="s">
@@ -16552,7 +16607,7 @@
       </c>
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
-      <c r="G207" s="23" t="s">
+      <c r="G207" s="22" t="s">
         <v>425</v>
       </c>
       <c r="H207" s="8" t="s">
@@ -16575,7 +16630,7 @@
       </c>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
-      <c r="G208" s="23" t="s">
+      <c r="G208" s="22" t="s">
         <v>426</v>
       </c>
       <c r="H208" s="8" t="s">
@@ -16598,7 +16653,7 @@
       </c>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
-      <c r="G209" s="23" t="s">
+      <c r="G209" s="22" t="s">
         <v>427</v>
       </c>
       <c r="H209" s="8" t="s">
@@ -16621,7 +16676,7 @@
       </c>
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
-      <c r="G210" s="23" t="s">
+      <c r="G210" s="22" t="s">
         <v>428</v>
       </c>
       <c r="H210" s="8" t="s">
@@ -16644,7 +16699,7 @@
       </c>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
-      <c r="G211" s="23" t="s">
+      <c r="G211" s="22" t="s">
         <v>429</v>
       </c>
       <c r="H211" s="8" t="s">
@@ -16667,7 +16722,7 @@
       </c>
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
-      <c r="G212" s="23" t="s">
+      <c r="G212" s="22" t="s">
         <v>430</v>
       </c>
       <c r="H212" s="8" t="s">
@@ -16690,7 +16745,7 @@
       </c>
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
-      <c r="G213" s="23" t="s">
+      <c r="G213" s="22" t="s">
         <v>431</v>
       </c>
       <c r="H213" s="8" t="s">
@@ -16713,7 +16768,7 @@
       </c>
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
-      <c r="G214" s="23" t="s">
+      <c r="G214" s="22" t="s">
         <v>432</v>
       </c>
       <c r="H214" s="8" t="s">
@@ -16735,7 +16790,7 @@
       </c>
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
-      <c r="G215" s="23" t="s">
+      <c r="G215" s="22" t="s">
         <v>433</v>
       </c>
       <c r="H215" s="8" t="s">
@@ -16757,7 +16812,7 @@
       </c>
       <c r="E216" s="7"/>
       <c r="F216" s="7"/>
-      <c r="G216" s="23" t="s">
+      <c r="G216" s="22" t="s">
         <v>434</v>
       </c>
       <c r="H216" s="8" t="s">
@@ -16779,7 +16834,7 @@
       </c>
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
-      <c r="G217" s="23" t="s">
+      <c r="G217" s="22" t="s">
         <v>435</v>
       </c>
       <c r="H217" s="8" t="s">
@@ -16801,7 +16856,7 @@
       </c>
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
-      <c r="G218" s="23" t="s">
+      <c r="G218" s="22" t="s">
         <v>436</v>
       </c>
       <c r="H218" s="8" t="s">
@@ -16823,7 +16878,7 @@
       </c>
       <c r="E219" s="7"/>
       <c r="F219" s="7"/>
-      <c r="G219" s="23" t="s">
+      <c r="G219" s="22" t="s">
         <v>437</v>
       </c>
       <c r="H219" s="8" t="s">
@@ -16845,7 +16900,7 @@
       </c>
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
-      <c r="G220" s="23" t="s">
+      <c r="G220" s="22" t="s">
         <v>438</v>
       </c>
       <c r="H220" s="8" t="s">
@@ -16871,7 +16926,7 @@
       <c r="F221" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G221" s="27" t="s">
+      <c r="G221" s="26" t="s">
         <v>439</v>
       </c>
       <c r="H221" s="8" t="s">
@@ -16897,7 +16952,7 @@
       <c r="F222" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G222" s="27" t="s">
+      <c r="G222" s="26" t="s">
         <v>440</v>
       </c>
       <c r="H222" s="8" t="s">
@@ -16923,7 +16978,7 @@
       <c r="F223" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G223" s="27" t="s">
+      <c r="G223" s="26" t="s">
         <v>441</v>
       </c>
       <c r="H223" s="8" t="s">
@@ -16949,7 +17004,7 @@
       <c r="F224" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G224" s="27" t="s">
+      <c r="G224" s="26" t="s">
         <v>442</v>
       </c>
       <c r="H224" s="8" t="s">
@@ -16975,7 +17030,7 @@
       <c r="F225" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G225" s="27" t="s">
+      <c r="G225" s="26" t="s">
         <v>443</v>
       </c>
       <c r="H225" s="8" t="s">
@@ -17001,7 +17056,7 @@
       <c r="F226" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G226" s="27" t="s">
+      <c r="G226" s="26" t="s">
         <v>444</v>
       </c>
       <c r="H226" s="8" t="s">
@@ -17027,7 +17082,7 @@
       <c r="F227" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G227" s="27" t="s">
+      <c r="G227" s="26" t="s">
         <v>445</v>
       </c>
       <c r="H227" s="8" t="s">
@@ -17053,7 +17108,7 @@
       <c r="F228" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G228" s="27" t="s">
+      <c r="G228" s="26" t="s">
         <v>446</v>
       </c>
       <c r="H228" s="8" t="s">
@@ -17079,7 +17134,7 @@
       <c r="F229" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G229" s="27" t="s">
+      <c r="G229" s="26" t="s">
         <v>447</v>
       </c>
       <c r="H229" s="8" t="s">
@@ -17105,7 +17160,7 @@
       <c r="F230" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G230" s="27" t="s">
+      <c r="G230" s="26" t="s">
         <v>448</v>
       </c>
       <c r="H230" s="8" t="s">
@@ -17131,7 +17186,7 @@
       <c r="F231" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G231" s="27" t="s">
+      <c r="G231" s="26" t="s">
         <v>449</v>
       </c>
       <c r="H231" s="8" t="s">
@@ -17157,7 +17212,7 @@
       <c r="F232" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G232" s="27" t="s">
+      <c r="G232" s="26" t="s">
         <v>450</v>
       </c>
       <c r="H232" s="8" t="s">
@@ -17183,7 +17238,7 @@
       <c r="F233" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G233" s="27" t="s">
+      <c r="G233" s="26" t="s">
         <v>451</v>
       </c>
       <c r="H233" s="8" t="s">
@@ -17209,7 +17264,7 @@
       <c r="F234" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G234" s="27" t="s">
+      <c r="G234" s="26" t="s">
         <v>452</v>
       </c>
       <c r="H234" s="8" t="s">
@@ -17235,7 +17290,7 @@
       <c r="F235" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G235" s="27" t="s">
+      <c r="G235" s="26" t="s">
         <v>453</v>
       </c>
       <c r="H235" s="8" t="s">
@@ -17261,7 +17316,7 @@
       <c r="F236" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G236" s="27" t="s">
+      <c r="G236" s="26" t="s">
         <v>454</v>
       </c>
       <c r="H236" s="8" t="s">
@@ -17287,7 +17342,7 @@
       <c r="F237" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G237" s="27" t="s">
+      <c r="G237" s="26" t="s">
         <v>455</v>
       </c>
       <c r="H237" s="8" t="s">
@@ -17313,7 +17368,7 @@
       <c r="F238" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G238" s="27" t="s">
+      <c r="G238" s="26" t="s">
         <v>456</v>
       </c>
       <c r="H238" s="8" t="s">
@@ -17339,7 +17394,7 @@
       <c r="F239" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G239" s="27" t="s">
+      <c r="G239" s="26" t="s">
         <v>457</v>
       </c>
       <c r="H239" s="8" t="s">
@@ -17365,7 +17420,7 @@
       <c r="F240" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G240" s="27" t="s">
+      <c r="G240" s="26" t="s">
         <v>458</v>
       </c>
       <c r="H240" s="8" t="s">
@@ -17391,7 +17446,7 @@
       <c r="F241" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G241" s="27" t="s">
+      <c r="G241" s="26" t="s">
         <v>459</v>
       </c>
       <c r="H241" s="8" t="s">
@@ -17417,7 +17472,7 @@
       <c r="F242" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G242" s="27" t="s">
+      <c r="G242" s="26" t="s">
         <v>460</v>
       </c>
       <c r="H242" s="8" t="s">
@@ -17443,7 +17498,7 @@
       <c r="F243" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G243" s="27" t="s">
+      <c r="G243" s="26" t="s">
         <v>461</v>
       </c>
       <c r="H243" s="8" t="s">
@@ -17469,7 +17524,7 @@
       <c r="F244" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G244" s="27" t="s">
+      <c r="G244" s="26" t="s">
         <v>462</v>
       </c>
       <c r="H244" s="8" t="s">
@@ -17495,7 +17550,7 @@
       <c r="F245" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G245" s="27" t="s">
+      <c r="G245" s="26" t="s">
         <v>463</v>
       </c>
       <c r="H245" s="8" t="s">
@@ -17521,7 +17576,7 @@
       <c r="F246" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G246" s="27" t="s">
+      <c r="G246" s="26" t="s">
         <v>464</v>
       </c>
       <c r="H246" s="8" t="s">
@@ -17547,7 +17602,7 @@
       <c r="F247" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G247" s="27" t="s">
+      <c r="G247" s="26" t="s">
         <v>465</v>
       </c>
       <c r="H247" s="8" t="s">
@@ -17573,7 +17628,7 @@
       <c r="F248" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G248" s="27" t="s">
+      <c r="G248" s="26" t="s">
         <v>466</v>
       </c>
       <c r="H248" s="8" t="s">
@@ -17599,7 +17654,7 @@
       <c r="F249" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G249" s="27" t="s">
+      <c r="G249" s="26" t="s">
         <v>467</v>
       </c>
       <c r="H249" s="8" t="s">
@@ -17625,7 +17680,7 @@
       <c r="F250" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G250" s="27" t="s">
+      <c r="G250" s="26" t="s">
         <v>468</v>
       </c>
       <c r="H250" s="8" t="s">
@@ -17651,7 +17706,7 @@
       <c r="F251" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G251" s="27" t="s">
+      <c r="G251" s="26" t="s">
         <v>469</v>
       </c>
       <c r="H251" s="8" t="s">
@@ -17677,7 +17732,7 @@
       <c r="F252" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G252" s="27" t="s">
+      <c r="G252" s="26" t="s">
         <v>470</v>
       </c>
       <c r="H252" s="8" t="s">
@@ -17703,7 +17758,7 @@
       <c r="F253" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G253" s="27" t="s">
+      <c r="G253" s="26" t="s">
         <v>471</v>
       </c>
       <c r="H253" s="8" t="s">
@@ -17729,7 +17784,7 @@
       <c r="F254" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G254" s="27" t="s">
+      <c r="G254" s="26" t="s">
         <v>472</v>
       </c>
       <c r="H254" s="8" t="s">
@@ -17755,7 +17810,7 @@
       <c r="F255" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G255" s="27" t="s">
+      <c r="G255" s="26" t="s">
         <v>473</v>
       </c>
       <c r="H255" s="8" t="s">
@@ -17781,7 +17836,7 @@
       <c r="F256" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G256" s="27" t="s">
+      <c r="G256" s="26" t="s">
         <v>474</v>
       </c>
       <c r="H256" s="8" t="s">
@@ -17807,7 +17862,7 @@
       <c r="F257" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G257" s="27" t="s">
+      <c r="G257" s="26" t="s">
         <v>475</v>
       </c>
       <c r="H257" s="8" t="s">
@@ -17833,7 +17888,7 @@
       <c r="F258" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G258" s="27" t="s">
+      <c r="G258" s="26" t="s">
         <v>476</v>
       </c>
       <c r="H258" s="8" t="s">
@@ -17859,7 +17914,7 @@
       <c r="F259" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G259" s="27" t="s">
+      <c r="G259" s="26" t="s">
         <v>477</v>
       </c>
       <c r="H259" s="8" t="s">
@@ -17885,7 +17940,7 @@
       <c r="F260" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G260" s="27" t="s">
+      <c r="G260" s="26" t="s">
         <v>478</v>
       </c>
       <c r="H260" s="8" t="s">
@@ -17911,7 +17966,7 @@
       <c r="F261" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G261" s="27" t="s">
+      <c r="G261" s="26" t="s">
         <v>479</v>
       </c>
       <c r="H261" s="8" t="s">
@@ -17937,7 +17992,7 @@
       <c r="F262" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G262" s="27" t="s">
+      <c r="G262" s="26" t="s">
         <v>480</v>
       </c>
       <c r="H262" s="8" t="s">
@@ -17959,7 +18014,7 @@
       </c>
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
-      <c r="G263" s="23" t="s">
+      <c r="G263" s="22" t="s">
         <v>481</v>
       </c>
       <c r="H263" s="8" t="s">
@@ -17981,7 +18036,7 @@
       </c>
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
-      <c r="G264" s="23" t="s">
+      <c r="G264" s="22" t="s">
         <v>482</v>
       </c>
       <c r="H264" s="8" t="s">
@@ -18003,7 +18058,7 @@
       </c>
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
-      <c r="G265" s="27" t="s">
+      <c r="G265" s="26" t="s">
         <v>483</v>
       </c>
       <c r="H265" s="8" t="s">
@@ -18025,7 +18080,7 @@
       </c>
       <c r="E266" s="7"/>
       <c r="F266" s="7"/>
-      <c r="G266" s="27" t="s">
+      <c r="G266" s="26" t="s">
         <v>484</v>
       </c>
       <c r="H266" s="8" t="s">
@@ -18047,7 +18102,7 @@
       </c>
       <c r="E267" s="7"/>
       <c r="F267" s="7"/>
-      <c r="G267" s="27" t="s">
+      <c r="G267" s="26" t="s">
         <v>485</v>
       </c>
       <c r="H267" s="8" t="s">
@@ -18073,7 +18128,7 @@
       <c r="F268" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G268" s="27" t="s">
+      <c r="G268" s="26" t="s">
         <v>486</v>
       </c>
       <c r="H268" s="8" t="s">
@@ -18100,7 +18155,7 @@
       <c r="F269" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G269" s="27" t="s">
+      <c r="G269" s="26" t="s">
         <v>487</v>
       </c>
       <c r="H269" s="8" t="s">
@@ -18127,7 +18182,7 @@
       <c r="F270" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G270" s="27" t="s">
+      <c r="G270" s="26" t="s">
         <v>488</v>
       </c>
       <c r="H270" s="8" t="s">
@@ -18154,7 +18209,7 @@
       <c r="F271" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G271" s="27" t="s">
+      <c r="G271" s="26" t="s">
         <v>489</v>
       </c>
       <c r="H271" s="8" t="s">
@@ -18181,7 +18236,7 @@
       <c r="F272" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G272" s="27" t="s">
+      <c r="G272" s="26" t="s">
         <v>490</v>
       </c>
       <c r="H272" s="8" t="s">
@@ -18208,7 +18263,7 @@
       <c r="F273" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G273" s="27" t="s">
+      <c r="G273" s="26" t="s">
         <v>491</v>
       </c>
       <c r="H273" s="8" t="s">
@@ -18235,7 +18290,7 @@
       <c r="F274" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G274" s="27" t="s">
+      <c r="G274" s="26" t="s">
         <v>492</v>
       </c>
       <c r="H274" s="8" t="s">
@@ -18262,7 +18317,7 @@
       <c r="F275" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G275" s="27" t="s">
+      <c r="G275" s="26" t="s">
         <v>493</v>
       </c>
       <c r="H275" s="8" t="s">
@@ -18289,7 +18344,7 @@
       <c r="F276" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G276" s="27" t="s">
+      <c r="G276" s="26" t="s">
         <v>494</v>
       </c>
       <c r="H276" s="8" t="s">
@@ -18316,7 +18371,7 @@
       <c r="F277" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G277" s="27" t="s">
+      <c r="G277" s="26" t="s">
         <v>495</v>
       </c>
       <c r="H277" s="8" t="s">
@@ -18343,7 +18398,7 @@
       <c r="F278" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G278" s="27" t="s">
+      <c r="G278" s="26" t="s">
         <v>496</v>
       </c>
       <c r="H278" s="8" t="s">
@@ -18370,7 +18425,7 @@
       <c r="F279" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G279" s="27" t="s">
+      <c r="G279" s="26" t="s">
         <v>497</v>
       </c>
       <c r="H279" s="8" t="s">
@@ -18397,7 +18452,7 @@
       <c r="F280" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G280" s="27" t="s">
+      <c r="G280" s="26" t="s">
         <v>498</v>
       </c>
       <c r="H280" s="8" t="s">
@@ -18424,7 +18479,7 @@
       <c r="F281" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G281" s="27" t="s">
+      <c r="G281" s="26" t="s">
         <v>499</v>
       </c>
       <c r="H281" s="8" t="s">
@@ -18451,7 +18506,7 @@
       <c r="F282" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G282" s="27" t="s">
+      <c r="G282" s="26" t="s">
         <v>500</v>
       </c>
       <c r="H282" s="8" t="s">
@@ -18478,7 +18533,7 @@
       <c r="F283" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G283" s="27" t="s">
+      <c r="G283" s="26" t="s">
         <v>501</v>
       </c>
       <c r="H283" s="8" t="s">
@@ -18505,7 +18560,7 @@
       <c r="F284" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G284" s="27" t="s">
+      <c r="G284" s="26" t="s">
         <v>502</v>
       </c>
       <c r="H284" s="8" t="s">
@@ -18532,7 +18587,7 @@
       <c r="F285" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G285" s="27" t="s">
+      <c r="G285" s="26" t="s">
         <v>503</v>
       </c>
       <c r="H285" s="8" t="s">
@@ -18559,7 +18614,7 @@
       <c r="F286" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G286" s="27" t="s">
+      <c r="G286" s="26" t="s">
         <v>504</v>
       </c>
       <c r="H286" s="8" t="s">
@@ -18586,7 +18641,7 @@
       <c r="F287" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G287" s="27" t="s">
+      <c r="G287" s="26" t="s">
         <v>505</v>
       </c>
       <c r="H287" s="8" t="s">
@@ -18613,7 +18668,7 @@
       <c r="F288" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G288" s="27" t="s">
+      <c r="G288" s="26" t="s">
         <v>506</v>
       </c>
       <c r="H288" s="8" t="s">
@@ -18640,7 +18695,7 @@
       <c r="F289" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G289" s="27" t="s">
+      <c r="G289" s="26" t="s">
         <v>507</v>
       </c>
       <c r="H289" s="8" t="s">
@@ -18667,7 +18722,7 @@
       <c r="F290" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G290" s="27" t="s">
+      <c r="G290" s="26" t="s">
         <v>508</v>
       </c>
       <c r="H290" s="8" t="s">
@@ -18694,7 +18749,7 @@
       <c r="F291" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G291" s="27" t="s">
+      <c r="G291" s="26" t="s">
         <v>509</v>
       </c>
       <c r="H291" s="8" t="s">
@@ -18721,7 +18776,7 @@
       <c r="F292" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G292" s="27" t="s">
+      <c r="G292" s="26" t="s">
         <v>510</v>
       </c>
       <c r="H292" s="8" t="s">
@@ -18748,7 +18803,7 @@
       <c r="F293" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G293" s="27" t="s">
+      <c r="G293" s="26" t="s">
         <v>511</v>
       </c>
       <c r="H293" s="8" t="s">
@@ -18775,7 +18830,7 @@
       <c r="F294" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G294" s="27" t="s">
+      <c r="G294" s="26" t="s">
         <v>512</v>
       </c>
       <c r="H294" s="8" t="s">
@@ -18802,7 +18857,7 @@
       <c r="F295" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G295" s="27" t="s">
+      <c r="G295" s="26" t="s">
         <v>513</v>
       </c>
       <c r="H295" s="8" t="s">
@@ -18829,7 +18884,7 @@
       <c r="F296" s="13">
         <v>99999999999</v>
       </c>
-      <c r="G296" s="28" t="s">
+      <c r="G296" s="27" t="s">
         <v>514</v>
       </c>
       <c r="H296" s="14" t="s">
@@ -18855,7 +18910,7 @@
       <c r="F297" s="13">
         <v>99999999999</v>
       </c>
-      <c r="G297" s="28" t="s">
+      <c r="G297" s="27" t="s">
         <v>515</v>
       </c>
       <c r="H297" s="14" t="s">
@@ -18881,7 +18936,7 @@
       <c r="F298" s="13">
         <v>99999999999</v>
       </c>
-      <c r="G298" s="28" t="s">
+      <c r="G298" s="27" t="s">
         <v>516</v>
       </c>
       <c r="H298" s="14" t="s">
@@ -18907,7 +18962,7 @@
       <c r="F299" s="13">
         <v>99999999999</v>
       </c>
-      <c r="G299" s="28" t="s">
+      <c r="G299" s="27" t="s">
         <v>517</v>
       </c>
       <c r="H299" s="14" t="s">
@@ -18933,7 +18988,7 @@
       <c r="F300" s="13">
         <v>99999999999</v>
       </c>
-      <c r="G300" s="28" t="s">
+      <c r="G300" s="27" t="s">
         <v>518</v>
       </c>
       <c r="H300" s="14" t="s">
@@ -18959,7 +19014,7 @@
       <c r="F301" s="13">
         <v>99999999999</v>
       </c>
-      <c r="G301" s="28" t="s">
+      <c r="G301" s="27" t="s">
         <v>519</v>
       </c>
       <c r="H301" s="14" t="s">
@@ -18985,7 +19040,7 @@
       <c r="F302" s="13">
         <v>99999999999</v>
       </c>
-      <c r="G302" s="28" t="s">
+      <c r="G302" s="27" t="s">
         <v>520</v>
       </c>
       <c r="H302" s="14" t="s">
@@ -19011,7 +19066,7 @@
       <c r="F303" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G303" s="20" t="s">
+      <c r="G303" s="19" t="s">
         <v>521</v>
       </c>
       <c r="H303" s="6" t="s">
@@ -19037,7 +19092,7 @@
       <c r="F304" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G304" s="20" t="s">
+      <c r="G304" s="19" t="s">
         <v>522</v>
       </c>
       <c r="H304" s="6" t="s">
@@ -19063,7 +19118,7 @@
       <c r="F305" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G305" s="20" t="s">
+      <c r="G305" s="19" t="s">
         <v>523</v>
       </c>
       <c r="H305" s="6" t="s">
@@ -19089,7 +19144,7 @@
       <c r="F306" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G306" s="20" t="s">
+      <c r="G306" s="19" t="s">
         <v>524</v>
       </c>
       <c r="H306" s="6" t="s">
@@ -19115,7 +19170,7 @@
       <c r="F307" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G307" s="20" t="s">
+      <c r="G307" s="19" t="s">
         <v>525</v>
       </c>
       <c r="H307" s="6" t="s">
@@ -19141,7 +19196,7 @@
       <c r="F308" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G308" s="20" t="s">
+      <c r="G308" s="19" t="s">
         <v>526</v>
       </c>
       <c r="H308" s="6" t="s">
@@ -19167,7 +19222,7 @@
       <c r="F309" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G309" s="20" t="s">
+      <c r="G309" s="19" t="s">
         <v>527</v>
       </c>
       <c r="H309" s="6" t="s">
@@ -19193,7 +19248,7 @@
       <c r="F310" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G310" s="20" t="s">
+      <c r="G310" s="19" t="s">
         <v>528</v>
       </c>
       <c r="H310" s="6" t="s">
@@ -19219,7 +19274,7 @@
       <c r="F311" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G311" s="20" t="s">
+      <c r="G311" s="19" t="s">
         <v>529</v>
       </c>
       <c r="H311" s="6" t="s">
@@ -19245,7 +19300,7 @@
       <c r="F312" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G312" s="20" t="s">
+      <c r="G312" s="19" t="s">
         <v>530</v>
       </c>
       <c r="H312" s="6" t="s">
@@ -19271,7 +19326,7 @@
       <c r="F313" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G313" s="20" t="s">
+      <c r="G313" s="19" t="s">
         <v>531</v>
       </c>
       <c r="H313" s="6" t="s">
@@ -19297,7 +19352,7 @@
       <c r="F314" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G314" s="20" t="s">
+      <c r="G314" s="19" t="s">
         <v>532</v>
       </c>
       <c r="H314" s="6" t="s">
@@ -19323,7 +19378,7 @@
       <c r="F315" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G315" s="20" t="s">
+      <c r="G315" s="19" t="s">
         <v>533</v>
       </c>
       <c r="H315" s="6" t="s">
@@ -19349,7 +19404,7 @@
       <c r="F316" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G316" s="20" t="s">
+      <c r="G316" s="19" t="s">
         <v>534</v>
       </c>
       <c r="H316" s="6" t="s">
@@ -19375,7 +19430,7 @@
       <c r="F317" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G317" s="18" t="s">
+      <c r="G317" s="17" t="s">
         <v>535</v>
       </c>
       <c r="H317" s="6" t="s">
@@ -19401,7 +19456,7 @@
       <c r="F318" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G318" s="18" t="s">
+      <c r="G318" s="17" t="s">
         <v>536</v>
       </c>
       <c r="H318" s="6" t="s">
@@ -19427,7 +19482,7 @@
       <c r="F319" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G319" s="18" t="s">
+      <c r="G319" s="17" t="s">
         <v>537</v>
       </c>
       <c r="H319" s="6" t="s">
@@ -19453,7 +19508,7 @@
       <c r="F320" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G320" s="18" t="s">
+      <c r="G320" s="17" t="s">
         <v>538</v>
       </c>
       <c r="H320" s="6" t="s">
@@ -19479,7 +19534,7 @@
       <c r="F321" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G321" s="18" t="s">
+      <c r="G321" s="17" t="s">
         <v>539</v>
       </c>
       <c r="H321" s="6" t="s">
@@ -19505,7 +19560,7 @@
       <c r="F322" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G322" s="18" t="s">
+      <c r="G322" s="17" t="s">
         <v>540</v>
       </c>
       <c r="H322" s="6" t="s">
@@ -19531,7 +19586,7 @@
       <c r="F323" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G323" s="18" t="s">
+      <c r="G323" s="17" t="s">
         <v>541</v>
       </c>
       <c r="H323" s="6" t="s">
@@ -19557,7 +19612,7 @@
       <c r="F324" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G324" s="18" t="s">
+      <c r="G324" s="17" t="s">
         <v>542</v>
       </c>
       <c r="H324" s="6" t="s">
@@ -19583,7 +19638,7 @@
       <c r="F325" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G325" s="18" t="s">
+      <c r="G325" s="17" t="s">
         <v>543</v>
       </c>
       <c r="H325" s="6" t="s">
@@ -19609,7 +19664,7 @@
       <c r="F326" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G326" s="18" t="s">
+      <c r="G326" s="17" t="s">
         <v>544</v>
       </c>
       <c r="H326" s="6" t="s">
@@ -19635,7 +19690,7 @@
       <c r="F327" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G327" s="18" t="s">
+      <c r="G327" s="17" t="s">
         <v>545</v>
       </c>
       <c r="H327" s="6" t="s">
@@ -19661,7 +19716,7 @@
       <c r="F328" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G328" s="18" t="s">
+      <c r="G328" s="17" t="s">
         <v>546</v>
       </c>
       <c r="H328" s="6" t="s">
@@ -19687,7 +19742,7 @@
       <c r="F329" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G329" s="18" t="s">
+      <c r="G329" s="17" t="s">
         <v>547</v>
       </c>
       <c r="H329" s="6" t="s">
@@ -19713,7 +19768,7 @@
       <c r="F330" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G330" s="18" t="s">
+      <c r="G330" s="17" t="s">
         <v>548</v>
       </c>
       <c r="H330" s="6" t="s">
@@ -19739,7 +19794,7 @@
       <c r="F331" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G331" s="18" t="s">
+      <c r="G331" s="17" t="s">
         <v>549</v>
       </c>
       <c r="H331" s="6" t="s">
@@ -19765,7 +19820,7 @@
       <c r="F332" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G332" s="18" t="s">
+      <c r="G332" s="17" t="s">
         <v>550</v>
       </c>
       <c r="H332" s="6" t="s">
@@ -19791,7 +19846,7 @@
       <c r="F333" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G333" s="18" t="s">
+      <c r="G333" s="17" t="s">
         <v>551</v>
       </c>
       <c r="H333" s="6" t="s">
@@ -19817,7 +19872,7 @@
       <c r="F334" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G334" s="18" t="s">
+      <c r="G334" s="17" t="s">
         <v>552</v>
       </c>
       <c r="H334" s="6" t="s">
@@ -19843,7 +19898,7 @@
       <c r="F335" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G335" s="18" t="s">
+      <c r="G335" s="17" t="s">
         <v>553</v>
       </c>
       <c r="H335" s="6" t="s">
@@ -19869,7 +19924,7 @@
       <c r="F336" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G336" s="18" t="s">
+      <c r="G336" s="17" t="s">
         <v>554</v>
       </c>
       <c r="H336" s="6" t="s">
@@ -19895,7 +19950,7 @@
       <c r="F337" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G337" s="18" t="s">
+      <c r="G337" s="17" t="s">
         <v>555</v>
       </c>
       <c r="H337" s="6" t="s">
@@ -19921,7 +19976,7 @@
       <c r="F338" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G338" s="18" t="s">
+      <c r="G338" s="17" t="s">
         <v>556</v>
       </c>
       <c r="H338" s="6" t="s">
@@ -19947,7 +20002,7 @@
       <c r="F339" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G339" s="18" t="s">
+      <c r="G339" s="17" t="s">
         <v>557</v>
       </c>
       <c r="H339" s="6" t="s">
@@ -19973,7 +20028,7 @@
       <c r="F340" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G340" s="18" t="s">
+      <c r="G340" s="17" t="s">
         <v>558</v>
       </c>
       <c r="H340" s="6" t="s">
@@ -19999,7 +20054,7 @@
       <c r="F341" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G341" s="18" t="s">
+      <c r="G341" s="17" t="s">
         <v>559</v>
       </c>
       <c r="H341" s="6" t="s">
@@ -20025,7 +20080,7 @@
       <c r="F342" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G342" s="18" t="s">
+      <c r="G342" s="17" t="s">
         <v>560</v>
       </c>
       <c r="H342" s="6" t="s">
@@ -20051,7 +20106,7 @@
       <c r="F343" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G343" s="18" t="s">
+      <c r="G343" s="17" t="s">
         <v>561</v>
       </c>
       <c r="H343" s="6" t="s">
@@ -20077,7 +20132,7 @@
       <c r="F344" s="7">
         <v>99999999999</v>
       </c>
-      <c r="G344" s="18" t="s">
+      <c r="G344" s="17" t="s">
         <v>562</v>
       </c>
       <c r="H344" s="6" t="s">
@@ -28841,7 +28896,7 @@
       <c r="A438" s="7">
         <v>437</v>
       </c>
-      <c r="B438" s="16">
+      <c r="B438" s="15">
         <v>433</v>
       </c>
       <c r="C438" s="4" t="s">

--- a/config_6.1/rank_server.xlsx
+++ b/config_6.1/rank_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2607,9 +2607,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -2659,17 +2659,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2682,51 +2710,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2740,9 +2724,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2763,14 +2752,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2784,6 +2776,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2792,8 +2791,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2869,13 +2869,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2887,7 +2899,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2899,13 +2917,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2917,43 +2995,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2965,67 +3019,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3038,12 +3044,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3090,8 +3090,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3099,8 +3110,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3124,18 +3135,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3175,10 +3175,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3187,136 +3187,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3771,7 +3771,7 @@
   <sheetPr/>
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
@@ -11955,10 +11955,10 @@
   <sheetPr/>
   <dimension ref="A1:I344"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A345" sqref="A345"/>
+      <selection pane="bottomLeft" activeCell="H347" sqref="H347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -19789,7 +19789,7 @@
         <v>1</v>
       </c>
       <c r="E331" s="13">
-        <v>3000000</v>
+        <v>300000000</v>
       </c>
       <c r="F331" s="7">
         <v>99999999999</v>
@@ -19815,7 +19815,7 @@
         <v>2</v>
       </c>
       <c r="E332" s="13">
-        <v>1800000</v>
+        <v>180000000</v>
       </c>
       <c r="F332" s="7">
         <v>99999999999</v>
@@ -19841,7 +19841,7 @@
         <v>3</v>
       </c>
       <c r="E333" s="13">
-        <v>900000</v>
+        <v>90000000</v>
       </c>
       <c r="F333" s="7">
         <v>99999999999</v>
@@ -19867,7 +19867,7 @@
         <v>6</v>
       </c>
       <c r="E334" s="13">
-        <v>450000</v>
+        <v>45000000</v>
       </c>
       <c r="F334" s="7">
         <v>99999999999</v>
@@ -19893,7 +19893,7 @@
         <v>10</v>
       </c>
       <c r="E335" s="13">
-        <v>300000</v>
+        <v>30000000</v>
       </c>
       <c r="F335" s="7">
         <v>99999999999</v>
@@ -19919,7 +19919,7 @@
         <v>15</v>
       </c>
       <c r="E336" s="13">
-        <v>180000</v>
+        <v>18000000</v>
       </c>
       <c r="F336" s="7">
         <v>99999999999</v>
@@ -19945,7 +19945,7 @@
         <v>20</v>
       </c>
       <c r="E337" s="13">
-        <v>90000</v>
+        <v>9000000</v>
       </c>
       <c r="F337" s="7">
         <v>99999999999</v>
